--- a/로스트아크/데이터테이블/Skill_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2161D7F-8BE1-4BAA-88C0-AFC55778E9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47874257-7775-49C6-95D9-BBAEA4AD8CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -308,9 +308,10 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
           </rPr>
           <t>[스킬 종류]</t>
         </r>
@@ -318,8 +319,10 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -329,51 +332,239 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">0 : 기본 공격(평타)
-1 : 이동기
-2 : 기상기
-3 : 아이덴티티 스킬
-4 : 각성기
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">BASIC_ATTACK </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 기본 공격(평타)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+MOVEMENT </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 이동기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+STAND_UP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 기상기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+IDENTITY</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 아이덴티티 스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+AWAKENING</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 각성기
 </t>
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>HYPER_AWAKENING</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 초각성기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>10 : 일반 스킬</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
+NORMAL </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 일반 스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
-11 : 일반 스킬 세부 분류 1 (ex: 소울이터 - 살귀 스킬)
-12 : 일반 스킬 세부 분류 2 (ex: 소울이터 - 망자 스킬)
-13 : 일반 스킬 세부 분류 3 (ex: 소울이터 - 사신 스킬)</t>
+NORMAL_1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 일반 스킬 상세 분류 1 (ex: 소울이터 - 살귀 스킬)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+NORMAL_2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 일반 스킬 상세 분류 2 (ex: 소울이터 - 망자 스킬)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+NORMAL_3 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 일반 스킬 상세 분류 3 (ex: 소울이터 - 사신 스킬)</t>
         </r>
       </text>
     </comment>
@@ -458,16 +649,119 @@
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">[스킬 종류]
-0 : 기본 공격(평타)
-1 : 이동기
-2 : 기상기
-3 : 아이덴티티 스킬
-4 : 각성기
-10 : 일반 스킬
+BASIC_ATTACK </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 기본 공격(평타)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+MOVEMENT </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 이동기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+STAND_UP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 기상기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+IDENTITY </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>: 아이덴티티 스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+AWAKENING</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 각성기
 </t>
         </r>
         <r>
           <rPr>
+            <b/>
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="맑은 고딕"/>
@@ -475,9 +769,115 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>11 : 일반 스킬 세부 분류 1 (ex: 소울이터 - 살귀 스킬)
-12 : 일반 스킬 세부 분류 2 (ex: 소울이터 - 망자 스킬)
-13 : 일반 스킬 세부 분류 3 (ex: 소울이터 - 사신 스킬)</t>
+          <t>HYPER_AWAKENING</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 초각성기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+NORMAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 일반 스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+NORMAL_1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 일반 스킬 상세 분류 1 (ex: 소울이터 - 살귀 스킬)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+NORMAL_2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 일반 스킬 상세 분류 2 (ex: 소울이터 - 망자 스킬)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+NORMAL_3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 일반 스킬 상세 분류 3 (ex: 소울이터 - 사신 스킬)
+</t>
         </r>
       </text>
     </comment>
@@ -565,7 +965,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -951,6 +1351,103 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWAKENING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) 창술사의 일반 스킬 분류 : 난무(FLURRY) &amp; 집중(FOCUS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>클래스 별 일반 스킬 분류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에 해당되는 값</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>category =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NORMAL_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NORMAL_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, … </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -961,7 +1458,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,12 +1518,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
@@ -1035,13 +1526,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="돋움"/>
@@ -1656,7 +2140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1777,10 +2261,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1825,6 +2309,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1837,19 +2324,19 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1861,13 +2348,13 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1900,11 +2387,14 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1914,8 +2404,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFD5"/>
       <color rgb="FFF1F7ED"/>
-      <color rgb="FFFFFFD5"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1927,6 +2417,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>233082</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2244936</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>214551</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C942CFA-3603-6F7F-BF91-F1BF3ECE7F44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3980329" y="4043082"/>
+          <a:ext cx="2011854" cy="1335140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2226,10 +2765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:M17"/>
+  <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2238,7 +2777,7 @@
     <col min="2" max="2" width="4.3984375" style="12" customWidth="1"/>
     <col min="3" max="3" width="4.3984375" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.09765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.8984375" style="2" customWidth="1"/>
     <col min="7" max="9" width="8.69921875" style="3" customWidth="1"/>
     <col min="10" max="11" width="8.796875" style="3"/>
     <col min="12" max="12" width="10.5" style="3" bestFit="1" customWidth="1"/>
@@ -2248,17 +2787,17 @@
   <sheetData>
     <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="H2" s="65" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="H2" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="26" t="s">
@@ -2274,12 +2813,12 @@
         <v>0</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C4" s="24" t="s">
@@ -2295,10 +2834,10 @@
         <v>25</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="76"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="40" t="s">
@@ -2317,12 +2856,12 @@
         <v>29</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="77" t="s">
+      <c r="H5" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="81" t="s">
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="82" t="s">
         <v>42</v>
       </c>
       <c r="L5" s="46" t="s">
@@ -2349,10 +2888,10 @@
         <v>33</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="82"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="83"/>
       <c r="L6" s="47" t="s">
         <v>38</v>
       </c>
@@ -2376,12 +2915,12 @@
       <c r="F7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="70"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="52">
@@ -2391,17 +2930,17 @@
         <v>11</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F8" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="60" t="s">
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="61" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="49" t="s">
@@ -2427,10 +2966,10 @@
       <c r="F9" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="61"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="62"/>
       <c r="L9" s="42" t="s">
         <v>45</v>
       </c>
@@ -2470,10 +3009,37 @@
       <c r="F15" s="39"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="F16" s="39"/>
+      <c r="F16" s="39" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F17" s="37"/>
+      <c r="F17" s="56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F18" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F19" s="84"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F20" s="84"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F21" s="84"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F22" s="84"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F23" s="84"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F24" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2489,7 +3055,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2497,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2506,7 +3073,7 @@
     <col min="1" max="1" width="18.3984375" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.8984375" style="9" customWidth="1"/>
     <col min="4" max="4" width="11.19921875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" style="9" customWidth="1"/>
     <col min="6" max="7" width="15.8984375" style="9" customWidth="1"/>
     <col min="8" max="8" width="15.69921875" style="7" customWidth="1"/>
     <col min="9" max="10" width="15.69921875" style="6" customWidth="1"/>
@@ -2579,8 +3146,8 @@
       <c r="D2" s="10">
         <v>305</v>
       </c>
-      <c r="E2" s="9">
-        <v>4</v>
+      <c r="E2" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -2622,8 +3189,8 @@
       <c r="D3" s="10">
         <v>305</v>
       </c>
-      <c r="E3" s="9">
-        <v>4</v>
+      <c r="E3" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -2665,8 +3232,8 @@
       <c r="D4" s="10">
         <v>305</v>
       </c>
-      <c r="E4" s="9">
-        <v>11</v>
+      <c r="E4" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>

--- a/로스트아크/데이터테이블/Skill_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47874257-7775-49C6-95D9-BBAEA4AD8CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF46C5E1-28D9-4001-94DD-A8DE802DE515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -481,7 +481,7 @@
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
-NORMAL </t>
+NORMAL_0 </t>
         </r>
         <r>
           <rPr>
@@ -793,7 +793,7 @@
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
-NORMAL</t>
+NORMAL_0</t>
         </r>
         <r>
           <rPr>
@@ -965,7 +965,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1446,6 +1446,22 @@
       </rPr>
       <t xml:space="preserve">, … </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDENTITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASIC_ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2140,7 +2156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2392,9 +2408,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2767,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3024,22 +3037,22 @@
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F19" s="84"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F20" s="84"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F21" s="84"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F22" s="84"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F23" s="84"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F24" s="84"/>
+      <c r="F24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3064,8 +3077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3275,8 +3288,8 @@
       <c r="D5" s="10">
         <v>305</v>
       </c>
-      <c r="E5" s="9">
-        <v>12</v>
+      <c r="E5" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -3318,8 +3331,8 @@
       <c r="D6" s="10">
         <v>305</v>
       </c>
-      <c r="E6" s="9">
-        <v>12</v>
+      <c r="E6" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -3361,8 +3374,8 @@
       <c r="D7" s="10">
         <v>305</v>
       </c>
-      <c r="E7" s="9">
-        <v>11</v>
+      <c r="E7" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -3404,8 +3417,8 @@
       <c r="D8" s="10">
         <v>313</v>
       </c>
-      <c r="E8" s="9">
-        <v>4</v>
+      <c r="E8" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -3447,8 +3460,8 @@
       <c r="D9" s="10">
         <v>313</v>
       </c>
-      <c r="E9" s="9">
-        <v>4</v>
+      <c r="E9" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -3489,8 +3502,8 @@
       <c r="D10" s="10">
         <v>313</v>
       </c>
-      <c r="E10" s="9">
-        <v>3</v>
+      <c r="E10" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
@@ -3503,8 +3516,8 @@
       <c r="D11" s="10">
         <v>313</v>
       </c>
-      <c r="E11" s="9">
-        <v>0</v>
+      <c r="E11" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
@@ -3517,8 +3530,8 @@
       <c r="D12" s="10">
         <v>313</v>
       </c>
-      <c r="E12" s="9">
-        <v>3</v>
+      <c r="E12" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
@@ -3531,8 +3544,8 @@
       <c r="D13" s="11">
         <v>405</v>
       </c>
-      <c r="E13" s="9">
-        <v>4</v>
+      <c r="E13" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
@@ -3545,8 +3558,8 @@
       <c r="D14" s="11">
         <v>405</v>
       </c>
-      <c r="E14" s="9">
-        <v>4</v>
+      <c r="E14" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
@@ -3559,8 +3572,8 @@
       <c r="D15" s="11">
         <v>405</v>
       </c>
-      <c r="E15" s="9">
-        <v>13</v>
+      <c r="E15" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
@@ -3573,8 +3586,8 @@
       <c r="D16" s="11">
         <v>405</v>
       </c>
-      <c r="E16" s="9">
-        <v>13</v>
+      <c r="E16" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">

--- a/로스트아크/데이터테이블/Skill_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF46C5E1-28D9-4001-94DD-A8DE802DE515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD92CFA-96D7-4088-B604-2DE50D5A2CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -301,273 +301,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{2B369155-C557-42B7-BF94-4F1DF83919E5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[스킬 종류]</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">BASIC_ATTACK </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>: 기본 공격(평타)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-MOVEMENT </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>: 이동기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-STAND_UP</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 기상기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-IDENTITY</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 아이덴티티 스킬</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-AWAKENING</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 각성기
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>HYPER_AWAKENING</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 초각성기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-NORMAL_0 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>: 일반 스킬</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-NORMAL_1 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>: 일반 스킬 상세 분류 1 (ex: 소울이터 - 살귀 스킬)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-NORMAL_2 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>: 일반 스킬 상세 분류 2 (ex: 소울이터 - 망자 스킬)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-NORMAL_3 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>: 일반 스킬 상세 분류 3 (ex: 소울이터 - 사신 스킬)</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -965,7 +698,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1152,181 +885,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">스킬을 사용하는 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>클래스 id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Class_Table.xlsx의 id)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 정보 ID의 넘버링 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">'고유의 특징'에 따라 분류되는 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">스킬 종류 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(메모 참고)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창술사 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5번 스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>→</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브레이커 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10번 스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[예시 1] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id = 30505</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[예시 2] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id = 31310</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OOO/OO -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">클래스 id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>스킬 No.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="10"/>
@@ -1352,10 +910,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AWAKENING</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1364,12 +918,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ex) 창술사의 일반 스킬 분류 : 난무(FLURRY) &amp; 집중(FOCUS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>NORMAL_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDENTITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASIC_ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스 지점에 공격을 가한다. 도약하여 전방을 바라보며 후방으로 4m 가량 공중으로 점프한다. 이후 창에 기를 집중하고 선택한 지점에 창을 던진다. 창이 지점에 떨어지며 {dmg_1}의 피해를 주고 서서히 폭발하여 {dmg_2}, {dmg_2}, {dmg_3}, {dmg_3}, {dmg_4}의 피해를 주고 마지막 {dmg_4}의 피해를 주며 날려버린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신을 집중 한 뒤 순간적으로 전방에 창을 찔러 {dmg_1}의 피해를 주며 창을 당겨 {dmg_1}의 피해를 주며 적들을 당겨온다. 이후 창을 휘둘러 {dmg_2}의 피해를 {hit_cnt_2}회 주고 찌르는 공격으로 {dmg_3}의 피해를 {hit_cnt_3}회 준다. 피니쉬로 전방으로 8m가량 전진하며 이동 공격을 하여 적에게 {dmg_4}의 피해를 주며 날려버린다. 이동 중 모험가 및 몬스터와 충돌이 무시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_01_26.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_27.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_18.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_25.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_23.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_15.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_23.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_22.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_26.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_27.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_25.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_28.png</t>
+  </si>
+  <si>
+    <t>se_skill_01_20.png</t>
+  </si>
+  <si>
+    <t>se_skill_01_21.png</t>
+  </si>
+  <si>
+    <t>se_skill_01_18.png</t>
+  </si>
+  <si>
+    <t>se_skill_01_19.png</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">-&gt; </t>
+      <t xml:space="preserve">스킬을 사용하는 </t>
     </r>
     <r>
       <rPr>
@@ -1381,87 +1003,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>클래스 별 일반 스킬 분류</t>
+      <t>클래스의 고유 id</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>에 해당되는 값</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>category =</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NORMAL_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NORMAL_2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, … </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORMAL_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDENTITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BASIC_ATTACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORMAL_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1474,7 +1017,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1602,14 +1145,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color indexed="81"/>
@@ -1627,7 +1162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1672,18 +1207,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFD5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1978,185 +1507,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2217,9 +1574,6 @@
     <xf numFmtId="178" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2283,68 +1637,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="5" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2355,59 +1661,17 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2430,55 +1694,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>233082</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2244936</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>214551</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C942CFA-3603-6F7F-BF91-F1BF3ECE7F44}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3980329" y="4043082"/>
-          <a:ext cx="2011854" cy="1335140"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2778,9 +1993,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:M24"/>
+  <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -2791,250 +2006,156 @@
     <col min="3" max="3" width="4.3984375" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.09765625" style="2" customWidth="1"/>
     <col min="6" max="6" width="56.8984375" style="2" customWidth="1"/>
-    <col min="7" max="9" width="8.69921875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="8.796875" style="3"/>
-    <col min="12" max="12" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="3"/>
+    <col min="7" max="7" width="8.69921875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="63" t="s">
+    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="H2" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
-    </row>
-    <row r="3" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="26" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="26" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74"/>
-    </row>
-    <row r="4" spans="2:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="24" t="s">
+    </row>
+    <row r="4" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
-    </row>
-    <row r="5" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="40" t="s">
+    </row>
+    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B6" s="41" t="s">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
         <v>2</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="35" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="41" t="s">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="40"/>
+      <c r="C7" s="49">
+        <v>3</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="33">
-        <v>3</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="35" t="s">
+      <c r="C8" s="32">
+        <v>4</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F8" s="35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="32">
+        <v>5</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="71"/>
-    </row>
-    <row r="8" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="52">
-        <v>4</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="33">
-        <v>5</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B10" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="33">
-        <v>6</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="44"/>
-    </row>
-    <row r="11" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="F14" s="38"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="F15" s="39"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="F16" s="39" t="s">
-        <v>56</v>
-      </c>
+    </row>
+    <row r="10" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F14" s="41"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F15" s="38"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F17" s="56" t="s">
-        <v>55</v>
-      </c>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F18" s="39" t="s">
-        <v>54</v>
-      </c>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F19" s="6"/>
@@ -3045,31 +2166,14 @@
     <row r="21" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F24" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H8:J9"/>
-    <mergeCell ref="K8:K9"/>
+  <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="H3:K4"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3077,17 +2181,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.8984375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="9" customWidth="1"/>
     <col min="4" max="4" width="11.19921875" style="11" customWidth="1"/>
     <col min="5" max="5" width="14.09765625" style="9" customWidth="1"/>
-    <col min="6" max="7" width="15.8984375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="50.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" style="9" customWidth="1"/>
     <col min="8" max="8" width="15.69921875" style="7" customWidth="1"/>
     <col min="9" max="10" width="15.69921875" style="6" customWidth="1"/>
     <col min="11" max="11" width="18.69921875" style="6" customWidth="1"/>
@@ -3106,7 +2212,7 @@
       <c r="B1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="43" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="19" t="s">
@@ -3115,10 +2221,10 @@
       <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="45" t="s">
         <v>30</v>
       </c>
       <c r="H1" s="5"/>
@@ -3148,22 +2254,28 @@
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="93.6" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="9">
         <v>30500</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="42" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" s="10">
         <v>305</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -3191,22 +2303,28 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" s="3" customFormat="1" ht="93.6" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="9">
         <v>30501</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="42" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="10">
         <v>305</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="H3" s="5"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -3241,15 +2359,19 @@
       <c r="B4" s="9">
         <v>30502</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="42" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="10">
         <v>305</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -3284,15 +2406,19 @@
       <c r="B5" s="9">
         <v>30503</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="42" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="10">
         <v>305</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -3327,15 +2453,19 @@
       <c r="B6" s="9">
         <v>30504</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="42" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="10">
         <v>305</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -3370,15 +2500,19 @@
       <c r="B7" s="9">
         <v>30505</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="10">
         <v>305</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -3413,15 +2547,19 @@
       <c r="B8" s="9">
         <v>31300</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="42" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="10">
         <v>313</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -3456,15 +2594,19 @@
       <c r="B9" s="9">
         <v>31301</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="D9" s="10">
         <v>313</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -3499,11 +2641,17 @@
       <c r="B10" s="9">
         <v>31302</v>
       </c>
+      <c r="C10" s="42" t="s">
+        <v>15</v>
+      </c>
       <c r="D10" s="10">
         <v>313</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>58</v>
+        <v>39</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
@@ -3513,11 +2661,17 @@
       <c r="B11" s="9">
         <v>31303</v>
       </c>
+      <c r="C11" s="42" t="s">
+        <v>17</v>
+      </c>
       <c r="D11" s="10">
         <v>313</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>59</v>
+        <v>40</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
@@ -3527,11 +2681,17 @@
       <c r="B12" s="9">
         <v>31304</v>
       </c>
+      <c r="C12" s="42" t="s">
+        <v>16</v>
+      </c>
       <c r="D12" s="10">
         <v>313</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>58</v>
+        <v>39</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
@@ -3541,11 +2701,17 @@
       <c r="B13" s="9">
         <v>40500</v>
       </c>
+      <c r="C13" s="42" t="s">
+        <v>20</v>
+      </c>
       <c r="D13" s="11">
         <v>405</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>52</v>
+        <v>36</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
@@ -3555,11 +2721,17 @@
       <c r="B14" s="9">
         <v>40501</v>
       </c>
+      <c r="C14" s="42" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="11">
         <v>405</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>52</v>
+        <v>36</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
@@ -3569,11 +2741,17 @@
       <c r="B15" s="9">
         <v>40502</v>
       </c>
+      <c r="C15" s="42" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="11">
         <v>405</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
@@ -3583,15 +2761,26 @@
       <c r="B16" s="9">
         <v>40503</v>
       </c>
+      <c r="C16" s="42" t="s">
+        <v>22</v>
+      </c>
       <c r="D16" s="11">
         <v>405</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="37"/>
+        <v>41</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G17" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/Skill_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD92CFA-96D7-4088-B604-2DE50D5A2CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E78A29-194A-41EF-990F-B97623B2BAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <author>홍진선</author>
   </authors>
   <commentList>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{163B30B4-404A-4528-B96A-5A950111A179}">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{163B30B4-404A-4528-B96A-5A950111A179}">
       <text>
         <r>
           <rPr>
@@ -305,400 +305,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>홍진선</author>
-    <author>Lenovo</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{7A5200E6-261A-4259-B0A3-21275C325528}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">스킬의 이름
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">(Skill_String_Table.xlsx의 id)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{D4A9D9DC-7D1E-4416-9232-798FA096E236}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>클래스 고유 id</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{9EF183EE-1C61-4268-BE00-C4A02C43D48A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[스킬 종류]
-BASIC_ATTACK </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>: 기본 공격(평타)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-MOVEMENT </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>: 이동기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-STAND_UP</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 기상기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-IDENTITY </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>: 아이덴티티 스킬</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-AWAKENING</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 각성기
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>HYPER_AWAKENING</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 초각성기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-NORMAL_0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 일반 스킬</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-NORMAL_1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 일반 스킬 상세 분류 1 (ex: 소울이터 - 살귀 스킬)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-NORMAL_2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 일반 스킬 상세 분류 2 (ex: 소울이터 - 망자 스킬)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-NORMAL_3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 일반 스킬 상세 분류 3 (ex: 소울이터 - 사신 스킬)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{C0989616-6D24-421B-987A-4BFC18FD4418}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">스킬의 설명
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(Skill_String_Table.xlsx의 id)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{B2B44041-9319-48BC-9A1A-E863CA96615C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">아이콘 리소스
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(Icon_Atlas_Table.xlsx의 id)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -712,10 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연가창식: 은하유성탄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -732,10 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -744,10 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>class_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -800,10 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기획용 (간단한 설명)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skill Info Table Schema</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -825,112 +417,6 @@
   </si>
   <si>
     <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>스킬명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Skill_String_Table.xlsx의 id)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>스킬의 설명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Skill_String_Table.xlsx의 id)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>스킬 아이콘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Icon_Atlas_Table.xlsx의 id)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AWAKENING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORMAL_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORMAL_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDENTITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BASIC_ATTACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORMAL_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1007,6 +493,22 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1017,7 +519,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="00"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1078,21 +580,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -1144,25 +631,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1183,12 +653,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1199,20 +663,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1365,19 +817,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1441,60 +880,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0"/>
       </left>
@@ -1513,7 +898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1538,9 +923,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1562,64 +944,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1631,10 +983,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1643,35 +995,38 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1993,17 +1348,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:G21"/>
+  <dimension ref="B1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.19921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="4.3984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.09765625" style="2" customWidth="1"/>
     <col min="6" max="6" width="56.8984375" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.69921875" style="3" customWidth="1"/>
@@ -2012,141 +1367,123 @@
   <sheetData>
     <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="29"/>
+      <c r="C5" s="33">
+        <v>2</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="29"/>
+      <c r="C6" s="33">
+        <v>3</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="29"/>
+      <c r="C7" s="33">
+        <v>4</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="29"/>
+      <c r="C8" s="33">
+        <v>5</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-    </row>
-    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="28">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="32">
-        <v>2</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="40"/>
-      <c r="C7" s="49">
-        <v>3</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="32">
-        <v>4</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="32">
-        <v>5</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="15"/>
+      <c r="E8" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F13" s="38"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F14" s="41"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F15" s="38"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F16" s="6"/>
@@ -2162,9 +1499,6 @@
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2178,56 +1512,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:AG18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
+  <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="50.5" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" style="7" customWidth="1"/>
-    <col min="9" max="10" width="15.69921875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="18.69921875" style="6" customWidth="1"/>
-    <col min="12" max="19" width="15.69921875" style="6" customWidth="1"/>
-    <col min="20" max="22" width="15.69921875" style="7" customWidth="1"/>
-    <col min="23" max="24" width="15.69921875" style="6" customWidth="1"/>
-    <col min="25" max="25" width="18.69921875" style="6" customWidth="1"/>
-    <col min="26" max="29" width="15.69921875" style="7" customWidth="1"/>
-    <col min="30" max="33" width="18.69921875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.796875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="77.3984375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" style="7" customWidth="1"/>
+    <col min="7" max="8" width="15.69921875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18.69921875" style="6" customWidth="1"/>
+    <col min="10" max="17" width="15.69921875" style="6" customWidth="1"/>
+    <col min="18" max="20" width="15.69921875" style="7" customWidth="1"/>
+    <col min="21" max="22" width="15.69921875" style="6" customWidth="1"/>
+    <col min="23" max="23" width="18.69921875" style="6" customWidth="1"/>
+    <col min="24" max="27" width="15.69921875" style="7" customWidth="1"/>
+    <col min="28" max="31" width="18.69921875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="43" t="s">
+    <row r="1" spans="1:31" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="5"/>
+      <c r="D1" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2237,46 +1565,40 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
       <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-    </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="9">
+    </row>
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="A2" s="8">
         <v>30500</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="B2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9">
         <v>305</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="5"/>
+      <c r="D2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2286,46 +1608,40 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-    </row>
-    <row r="3" spans="1:33" s="3" customFormat="1" ht="93.6" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="9">
+    </row>
+    <row r="3" spans="1:31" s="3" customFormat="1" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
         <v>30501</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="B3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9">
         <v>305</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="5"/>
+      <c r="D3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2335,44 +1651,38 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-    </row>
-    <row r="4" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9">
+    </row>
+    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
         <v>30502</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="B4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
         <v>305</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="5"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2382,44 +1692,38 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-    </row>
-    <row r="5" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9">
+    </row>
+    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
         <v>30503</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="B5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9">
         <v>305</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2429,44 +1733,38 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-    </row>
-    <row r="6" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9">
+    </row>
+    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="8">
         <v>30504</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="B6" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9">
         <v>305</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -2476,44 +1774,38 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-    </row>
-    <row r="7" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9">
+    </row>
+    <row r="7" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
         <v>30505</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="B7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9">
         <v>305</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="5"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -2523,44 +1815,38 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-    </row>
-    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="9">
+    </row>
+    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8">
         <v>31300</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="B8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9">
         <v>313</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -2570,44 +1856,38 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-    </row>
-    <row r="9" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9">
+    </row>
+    <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
         <v>31301</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="B9" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9">
         <v>313</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="5"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2617,174 +1897,129 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="9">
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
         <v>31302</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="B10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9">
         <v>313</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <v>31303</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9">
+        <v>313</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A11" s="8" t="s">
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A12" s="8">
+        <v>31304</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9">
+        <v>313</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A13" s="8">
+        <v>40500</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9">
-        <v>31303</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="10">
-        <v>313</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="9">
-        <v>31304</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="10">
-        <v>313</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A13" s="8" t="s">
+      <c r="C13" s="10">
+        <v>405</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
+        <v>40501</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="10">
+        <v>405</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <v>40502</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="9">
-        <v>40500</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="C15" s="10">
         <v>405</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="9">
-        <v>40501</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="E15" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <v>40503</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="10">
         <v>405</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="9">
-        <v>40502</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="11">
-        <v>405</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="9">
-        <v>40503</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="11">
-        <v>405</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G17" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="36"/>
+      <c r="E16" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E17" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/로스트아크/데이터테이블/Skill_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E78A29-194A-41EF-990F-B97623B2BAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66A777D-301B-479A-AF00-09AF22C547A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="18432" windowHeight="12336" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>홍진선</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{163B30B4-404A-4528-B96A-5A950111A179}">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{163B30B4-404A-4528-B96A-5A950111A179}">
       <text>
         <r>
           <rPr>
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="118">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,6 +509,252 @@
     <t>스킬명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>이연격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_01_5.png</t>
+  </si>
+  <si>
+    <t>풍진격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열공참</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회선창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일섬각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철량추</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡출수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반월섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연환섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질풍참</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선풍참흔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공의연무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사두룡격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굉열파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절룡세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맹룡난무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡필살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연가창식: 은하비섬창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연가창식: 마룡합일섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_01_6.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_7.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_8.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_9.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_10.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_11.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_12.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_13.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_14.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_16.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_17.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_20.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_21.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_22.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_24.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_28.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_29.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_30.png</t>
+  </si>
+  <si>
+    <t>lm_skill_01_31.png</t>
+  </si>
+  <si>
+    <t>나선창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ark_passive_lm_6.png</t>
+  </si>
+  <si>
+    <t>연가비기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ark_passive_lm_7.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연가심공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_01_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_01_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집중 스탠스 이동기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난무 스탠스 이동기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_01_3.png</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획용 (간단한 설명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창술사 기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠스 변경(집중-&gt;난무)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠스 변경(난무-&gt;집중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상기 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 초각성기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 초각성기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각성기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초각성 스킬 - 난무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초각성 스킬 - 집중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -519,7 +765,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,8 +877,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,8 +917,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -892,13 +1152,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,24 +1243,9 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -944,12 +1258,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1013,12 +1321,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,6 +1329,69 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1348,157 +1713,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:G20"/>
+  <dimension ref="B1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.19921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="4.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.09765625" style="2" customWidth="1"/>
     <col min="6" max="6" width="56.8984375" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.69921875" style="3" customWidth="1"/>
     <col min="8" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="40" t="s">
+    <row r="1" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-    </row>
-    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="19" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="2:17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+    </row>
+    <row r="5" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C5" s="14">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="29"/>
-      <c r="C5" s="33">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B6" s="22"/>
+      <c r="C6" s="26">
         <v>2</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E6" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F6" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="29"/>
-      <c r="C6" s="33">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B7" s="22"/>
+      <c r="C7" s="26">
         <v>3</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F7" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="29"/>
-      <c r="C7" s="33">
+    <row r="8" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="22"/>
+      <c r="C8" s="26">
         <v>4</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E8" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F8" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="29"/>
-      <c r="C8" s="33">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B9" s="22"/>
+      <c r="C9" s="26">
         <v>5</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E9" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F9" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F16" s="6"/>
+    <row r="10" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F17" s="6"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F18" s="6"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F19" s="6"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F20" s="6"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1513,510 +1904,1927 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AF52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="77.3984375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.296875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" style="7" customWidth="1"/>
-    <col min="7" max="8" width="15.69921875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.69921875" style="6" customWidth="1"/>
-    <col min="10" max="17" width="15.69921875" style="6" customWidth="1"/>
-    <col min="18" max="20" width="15.69921875" style="7" customWidth="1"/>
-    <col min="21" max="22" width="15.69921875" style="6" customWidth="1"/>
-    <col min="23" max="23" width="18.69921875" style="6" customWidth="1"/>
-    <col min="24" max="27" width="15.69921875" style="7" customWidth="1"/>
-    <col min="28" max="31" width="18.69921875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" style="54" customWidth="1"/>
+    <col min="2" max="2" width="8.09765625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="50" customWidth="1"/>
+    <col min="5" max="5" width="81.796875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="19" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" style="48" customWidth="1"/>
+    <col min="8" max="9" width="15.69921875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="18.69921875" style="25" customWidth="1"/>
+    <col min="11" max="18" width="15.69921875" style="25" customWidth="1"/>
+    <col min="19" max="21" width="15.69921875" style="48" customWidth="1"/>
+    <col min="22" max="23" width="15.69921875" style="25" customWidth="1"/>
+    <col min="24" max="24" width="18.69921875" style="25" customWidth="1"/>
+    <col min="25" max="28" width="15.69921875" style="48" customWidth="1"/>
+    <col min="29" max="32" width="18.69921875" style="25" customWidth="1"/>
+    <col min="33" max="16384" width="8.796875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:32" s="46" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="F1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="A2" s="8">
+      <c r="G1" s="41"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+    </row>
+    <row r="2" spans="1:32" s="46" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="24">
         <v>30500</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="C2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="40">
+        <v>305</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="18">
+        <v>0</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+    </row>
+    <row r="3" spans="1:32" s="46" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="24">
+        <v>30501</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="40">
+        <v>305</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="41"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+    </row>
+    <row r="4" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="24">
+        <v>30502</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="40">
+        <v>305</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+    </row>
+    <row r="5" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="24">
+        <v>30503</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="40">
+        <v>305</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+    </row>
+    <row r="6" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="24">
+        <v>30504</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="40">
+        <v>305</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24">
+        <v>0</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+    </row>
+    <row r="7" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="53"/>
+      <c r="B7" s="24">
+        <v>30505</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="40">
+        <v>305</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+    </row>
+    <row r="8" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="53"/>
+      <c r="B8" s="24">
+        <v>30506</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="40">
+        <v>305</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+    </row>
+    <row r="9" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="53"/>
+      <c r="B9" s="24">
+        <v>30507</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="40">
+        <v>305</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+    </row>
+    <row r="10" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="53"/>
+      <c r="B10" s="24">
+        <v>30508</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="40">
+        <v>305</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+    </row>
+    <row r="11" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="53"/>
+      <c r="B11" s="24">
+        <v>30509</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="40">
+        <v>305</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+    </row>
+    <row r="12" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="53"/>
+      <c r="B12" s="24">
+        <v>30510</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="40">
+        <v>305</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+    </row>
+    <row r="13" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="53"/>
+      <c r="B13" s="24">
+        <v>30511</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="40">
+        <v>305</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+    </row>
+    <row r="14" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="53"/>
+      <c r="B14" s="24">
+        <v>30512</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="40">
+        <v>305</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+    </row>
+    <row r="15" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="53"/>
+      <c r="B15" s="24">
+        <v>30513</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="40">
+        <v>305</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+    </row>
+    <row r="16" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="53"/>
+      <c r="B16" s="24">
+        <v>30514</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="40">
+        <v>305</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+    </row>
+    <row r="17" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="52"/>
+      <c r="B17" s="24">
+        <v>30515</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="40">
+        <v>305</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="41"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+    </row>
+    <row r="18" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="52"/>
+      <c r="B18" s="24">
+        <v>30516</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="40">
+        <v>305</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="41"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+    </row>
+    <row r="19" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="52"/>
+      <c r="B19" s="24">
+        <v>30517</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="40">
+        <v>305</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+    </row>
+    <row r="20" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="52"/>
+      <c r="B20" s="24">
+        <v>30518</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="40">
+        <v>305</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+    </row>
+    <row r="21" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="24">
+        <v>30519</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="40">
+        <v>305</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="24">
+        <v>0</v>
+      </c>
+      <c r="G21" s="41"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+    </row>
+    <row r="22" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="52"/>
+      <c r="B22" s="24">
+        <v>30520</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="40">
+        <v>305</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="41"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+    </row>
+    <row r="23" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="52"/>
+      <c r="B23" s="24">
+        <v>30521</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="40">
+        <v>305</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="41"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+    </row>
+    <row r="24" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="52"/>
+      <c r="B24" s="24">
+        <v>30522</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="40">
+        <v>305</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="41"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+    </row>
+    <row r="25" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="52"/>
+      <c r="B25" s="24">
+        <v>30523</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="40">
+        <v>305</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="41"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+    </row>
+    <row r="26" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="52"/>
+      <c r="B26" s="24">
+        <v>30524</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="40">
+        <v>305</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+    </row>
+    <row r="27" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="52"/>
+      <c r="B27" s="24">
+        <v>30525</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="40">
+        <v>305</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+    </row>
+    <row r="28" spans="1:32" s="42" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="24">
+        <v>30526</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9">
+      <c r="D28" s="40">
         <v>305</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E28" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F28" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-    </row>
-    <row r="3" spans="1:31" s="3" customFormat="1" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="A3" s="8">
-        <v>30501</v>
-      </c>
-      <c r="B3" s="31" t="s">
+      <c r="G28" s="41"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="41"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="41"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+    </row>
+    <row r="29" spans="1:32" s="42" customFormat="1" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="A29" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="24">
+        <v>30527</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9">
+      <c r="D29" s="40">
         <v>305</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F29" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-    </row>
-    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8">
-        <v>30502</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="G29" s="41"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="41"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+    </row>
+    <row r="30" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="24">
+        <v>30528</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="40">
         <v>305</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-    </row>
-    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="8">
-        <v>30503</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="E30" s="24"/>
+      <c r="F30" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="41"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+    </row>
+    <row r="31" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="24">
+        <v>30529</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="40">
         <v>305</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-    </row>
-    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="8">
-        <v>30504</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="E31" s="24"/>
+      <c r="F31" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="41"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+    </row>
+    <row r="32" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="24">
+        <v>30530</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="40">
         <v>305</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-    </row>
-    <row r="7" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="8">
-        <v>30505</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="E32" s="24"/>
+      <c r="F32" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="41"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="18"/>
+    </row>
+    <row r="33" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="24">
+        <v>30531</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="40">
         <v>305</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-    </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8">
+      <c r="E33" s="24"/>
+      <c r="F33" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="41"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+    </row>
+    <row r="34" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="52"/>
+      <c r="B34" s="24">
+        <v>30532</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="40">
+        <v>305</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="41"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="41"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+    </row>
+    <row r="35" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="52"/>
+      <c r="B35" s="24">
+        <v>30533</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="40">
+        <v>305</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="41"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+    </row>
+    <row r="36" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="54"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+    </row>
+    <row r="37" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="54"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+    </row>
+    <row r="38" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="54"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="41"/>
+      <c r="AA38" s="41"/>
+      <c r="AB38" s="41"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+    </row>
+    <row r="39" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="54"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="41"/>
+      <c r="AB39" s="41"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+    </row>
+    <row r="40" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="54"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="41"/>
+      <c r="AB40" s="41"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="18"/>
+      <c r="AF40" s="18"/>
+    </row>
+    <row r="41" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="54"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="41"/>
+      <c r="AB41" s="41"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="18"/>
+      <c r="AE41" s="18"/>
+      <c r="AF41" s="18"/>
+    </row>
+    <row r="42" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="54"/>
+      <c r="B42" s="24">
         <v>31300</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="C42" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9">
+      <c r="D42" s="40">
         <v>313</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
+      <c r="E42" s="24"/>
+      <c r="F42" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-    </row>
-    <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8">
+      <c r="G42" s="41"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="41"/>
+      <c r="AB42" s="41"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
+    </row>
+    <row r="43" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="54"/>
+      <c r="B43" s="24">
         <v>31301</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="C43" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9">
+      <c r="D43" s="40">
         <v>313</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A10" s="8">
+      <c r="G43" s="41"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="41"/>
+      <c r="AB43" s="41"/>
+      <c r="AC43" s="18"/>
+      <c r="AD43" s="18"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="18"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B44" s="24">
         <v>31302</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="C44" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9">
+      <c r="D44" s="40">
         <v>313</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F44" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A11" s="8">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B45" s="24">
         <v>31303</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="C45" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="9">
+      <c r="D45" s="40">
         <v>313</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F45" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A12" s="8">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B46" s="24">
         <v>31304</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="C46" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9">
+      <c r="D46" s="40">
         <v>313</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F46" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A13" s="8">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B47" s="24">
         <v>40500</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="C47" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="10">
+      <c r="D47" s="50">
         <v>405</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F47" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A14" s="8">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B48" s="24">
         <v>40501</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="C48" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="10">
+      <c r="D48" s="50">
         <v>405</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F48" s="24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A15" s="8">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B49" s="24">
         <v>40502</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="C49" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="10">
+      <c r="D49" s="50">
         <v>405</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F49" s="24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A16" s="8">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B50" s="24">
         <v>40503</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="C50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="10">
+      <c r="D50" s="50">
         <v>405</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F50" s="24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E17" s="8" t="s">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F51" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="25"/>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B52" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/Skill_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66A777D-301B-479A-AF00-09AF22C547A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B83C0C-674D-4A7E-B58E-B82230C69128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="18432" windowHeight="12336" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -732,10 +732,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기상기 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 초각성기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -765,7 +761,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,14 +873,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1227,7 +1215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1321,6 +1309,66 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,69 +1377,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1732,11 +1717,11 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="12" t="s">
@@ -1755,29 +1740,29 @@
     </row>
     <row r="4" spans="2:17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="34" t="s">
         <v>104</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
     </row>
     <row r="5" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="21" t="s">
@@ -1906,50 +1891,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:AF52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.796875" style="54" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="50" customWidth="1"/>
     <col min="2" max="2" width="8.09765625" style="24" customWidth="1"/>
     <col min="3" max="3" width="20.796875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="50" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="46" customWidth="1"/>
     <col min="5" max="5" width="81.796875" style="24" customWidth="1"/>
     <col min="6" max="6" width="19" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.69921875" style="48" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" style="44" customWidth="1"/>
     <col min="8" max="9" width="15.69921875" style="25" customWidth="1"/>
     <col min="10" max="10" width="18.69921875" style="25" customWidth="1"/>
     <col min="11" max="18" width="15.69921875" style="25" customWidth="1"/>
-    <col min="19" max="21" width="15.69921875" style="48" customWidth="1"/>
+    <col min="19" max="21" width="15.69921875" style="44" customWidth="1"/>
     <col min="22" max="23" width="15.69921875" style="25" customWidth="1"/>
     <col min="24" max="24" width="18.69921875" style="25" customWidth="1"/>
-    <col min="25" max="28" width="15.69921875" style="48" customWidth="1"/>
+    <col min="25" max="28" width="15.69921875" style="44" customWidth="1"/>
     <col min="29" max="32" width="18.69921875" style="25" customWidth="1"/>
-    <col min="33" max="16384" width="8.796875" style="49"/>
+    <col min="33" max="16384" width="8.796875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="46" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:32" s="43" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="41"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -1961,23 +1946,23 @@
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
       <c r="V1" s="18"/>
       <c r="W1" s="18"/>
       <c r="X1" s="18"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
       <c r="AC1" s="18"/>
       <c r="AD1" s="18"/>
       <c r="AE1" s="18"/>
       <c r="AF1" s="18"/>
     </row>
-    <row r="2" spans="1:32" s="46" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:32" s="43" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="48" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24">
@@ -1986,14 +1971,14 @@
       <c r="C2" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="37">
         <v>305</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="18">
         <v>0</v>
       </c>
-      <c r="G2" s="41"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -2005,23 +1990,23 @@
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
       <c r="AC2" s="18"/>
       <c r="AD2" s="18"/>
       <c r="AE2" s="18"/>
       <c r="AF2" s="18"/>
     </row>
-    <row r="3" spans="1:32" s="46" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:32" s="43" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="48" t="s">
         <v>100</v>
       </c>
       <c r="B3" s="24">
@@ -2030,14 +2015,14 @@
       <c r="C3" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="37">
         <v>305</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="41"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -2049,23 +2034,23 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
       <c r="X3" s="18"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
       <c r="AC3" s="18"/>
       <c r="AD3" s="18"/>
       <c r="AE3" s="18"/>
       <c r="AF3" s="18"/>
     </row>
-    <row r="4" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="48" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="24">
@@ -2074,14 +2059,14 @@
       <c r="C4" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="37">
         <v>305</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="41"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -2093,39 +2078,37 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
       <c r="X4" s="18"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
       <c r="AC4" s="18"/>
       <c r="AD4" s="18"/>
       <c r="AE4" s="18"/>
       <c r="AF4" s="18"/>
     </row>
-    <row r="5" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="52" t="s">
-        <v>95</v>
-      </c>
+    <row r="5" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="48"/>
       <c r="B5" s="24">
         <v>30503</v>
       </c>
-      <c r="C5" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="40">
+      <c r="C5" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="37">
         <v>305</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
@@ -2137,23 +2120,23 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
       <c r="X5" s="18"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
       <c r="AC5" s="18"/>
       <c r="AD5" s="18"/>
       <c r="AE5" s="18"/>
       <c r="AF5" s="18"/>
     </row>
-    <row r="6" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="52" t="s">
+    <row r="6" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="48" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="24">
@@ -2162,14 +2145,14 @@
       <c r="C6" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="37">
         <v>305</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24">
         <v>0</v>
       </c>
-      <c r="G6" s="41"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
@@ -2181,37 +2164,37 @@
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
       <c r="X6" s="18"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
       <c r="AC6" s="18"/>
       <c r="AD6" s="18"/>
       <c r="AE6" s="18"/>
       <c r="AF6" s="18"/>
     </row>
-    <row r="7" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="53"/>
+    <row r="7" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="49"/>
       <c r="B7" s="24">
         <v>30505</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="37">
         <v>305</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -2223,37 +2206,37 @@
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
       <c r="X7" s="18"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
       <c r="AC7" s="18"/>
       <c r="AD7" s="18"/>
       <c r="AE7" s="18"/>
       <c r="AF7" s="18"/>
     </row>
-    <row r="8" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="53"/>
+    <row r="8" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="49"/>
       <c r="B8" s="24">
         <v>30506</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="37">
         <v>305</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="41"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -2265,37 +2248,37 @@
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
       <c r="X8" s="18"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="18"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="18"/>
     </row>
-    <row r="9" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="53"/>
+    <row r="9" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="49"/>
       <c r="B9" s="24">
         <v>30507</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="37">
         <v>305</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="41"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -2307,37 +2290,37 @@
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
       <c r="AC9" s="18"/>
       <c r="AD9" s="18"/>
       <c r="AE9" s="18"/>
       <c r="AF9" s="18"/>
     </row>
-    <row r="10" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="53"/>
+    <row r="10" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="49"/>
       <c r="B10" s="24">
         <v>30508</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="37">
         <v>305</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="41"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -2349,37 +2332,37 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
       <c r="X10" s="18"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
       <c r="AC10" s="18"/>
       <c r="AD10" s="18"/>
       <c r="AE10" s="18"/>
       <c r="AF10" s="18"/>
     </row>
-    <row r="11" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="53"/>
+    <row r="11" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="49"/>
       <c r="B11" s="24">
         <v>30509</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="37">
         <v>305</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="41"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -2391,37 +2374,37 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
       <c r="V11" s="18"/>
       <c r="W11" s="18"/>
       <c r="X11" s="18"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
       <c r="AC11" s="18"/>
       <c r="AD11" s="18"/>
       <c r="AE11" s="18"/>
       <c r="AF11" s="18"/>
     </row>
-    <row r="12" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="53"/>
+    <row r="12" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="49"/>
       <c r="B12" s="24">
         <v>30510</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="37">
         <v>305</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="41"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -2433,37 +2416,37 @@
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
       <c r="X12" s="18"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
       <c r="AC12" s="18"/>
       <c r="AD12" s="18"/>
       <c r="AE12" s="18"/>
       <c r="AF12" s="18"/>
     </row>
-    <row r="13" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="53"/>
+    <row r="13" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="49"/>
       <c r="B13" s="24">
         <v>30511</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="37">
         <v>305</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="41"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -2475,37 +2458,37 @@
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
       <c r="X13" s="18"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
       <c r="AC13" s="18"/>
       <c r="AD13" s="18"/>
       <c r="AE13" s="18"/>
       <c r="AF13" s="18"/>
     </row>
-    <row r="14" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="53"/>
+    <row r="14" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="49"/>
       <c r="B14" s="24">
         <v>30512</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="37">
         <v>305</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="41"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -2517,37 +2500,37 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
       <c r="X14" s="18"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
       <c r="AC14" s="18"/>
       <c r="AD14" s="18"/>
       <c r="AE14" s="18"/>
       <c r="AF14" s="18"/>
     </row>
-    <row r="15" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="53"/>
+    <row r="15" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="49"/>
       <c r="B15" s="24">
         <v>30513</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="37">
         <v>305</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="41"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
@@ -2559,37 +2542,37 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
       <c r="X15" s="18"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
       <c r="AC15" s="18"/>
       <c r="AD15" s="18"/>
       <c r="AE15" s="18"/>
       <c r="AF15" s="18"/>
     </row>
-    <row r="16" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="53"/>
+    <row r="16" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="49"/>
       <c r="B16" s="24">
         <v>30514</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="37">
         <v>305</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="41"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -2601,37 +2584,37 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
       <c r="V16" s="18"/>
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
       <c r="AC16" s="18"/>
       <c r="AD16" s="18"/>
       <c r="AE16" s="18"/>
       <c r="AF16" s="18"/>
     </row>
-    <row r="17" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="52"/>
+    <row r="17" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="49"/>
       <c r="B17" s="24">
         <v>30515</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="37">
         <v>305</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="41"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -2643,37 +2626,37 @@
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
       <c r="V17" s="18"/>
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
       <c r="AC17" s="18"/>
       <c r="AD17" s="18"/>
       <c r="AE17" s="18"/>
       <c r="AF17" s="18"/>
     </row>
-    <row r="18" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="52"/>
+    <row r="18" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="49"/>
       <c r="B18" s="24">
         <v>30516</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="37">
         <v>305</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="41"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -2685,37 +2668,37 @@
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
       <c r="V18" s="18"/>
       <c r="W18" s="18"/>
       <c r="X18" s="18"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
       <c r="AC18" s="18"/>
       <c r="AD18" s="18"/>
       <c r="AE18" s="18"/>
       <c r="AF18" s="18"/>
     </row>
-    <row r="19" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="52"/>
+    <row r="19" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="49"/>
       <c r="B19" s="24">
         <v>30517</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="37">
         <v>305</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="41"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -2727,37 +2710,37 @@
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
       <c r="V19" s="18"/>
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
       <c r="AC19" s="18"/>
       <c r="AD19" s="18"/>
       <c r="AE19" s="18"/>
       <c r="AF19" s="18"/>
     </row>
-    <row r="20" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="52"/>
+    <row r="20" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="49"/>
       <c r="B20" s="24">
         <v>30518</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="37">
         <v>305</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="41"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -2769,23 +2752,23 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
       <c r="X20" s="18"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
       <c r="AC20" s="18"/>
       <c r="AD20" s="18"/>
       <c r="AE20" s="18"/>
       <c r="AF20" s="18"/>
     </row>
-    <row r="21" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="52" t="s">
+    <row r="21" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="48" t="s">
         <v>111</v>
       </c>
       <c r="B21" s="24">
@@ -2794,14 +2777,14 @@
       <c r="C21" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="37">
         <v>305</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="24">
         <v>0</v>
       </c>
-      <c r="G21" s="41"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -2813,37 +2796,37 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
       <c r="X21" s="18"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
       <c r="AC21" s="18"/>
       <c r="AD21" s="18"/>
       <c r="AE21" s="18"/>
       <c r="AF21" s="18"/>
     </row>
-    <row r="22" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="52"/>
+    <row r="22" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="48"/>
       <c r="B22" s="24">
         <v>30520</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="37">
         <v>305</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="41"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -2855,37 +2838,37 @@
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
       <c r="X22" s="18"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
       <c r="AC22" s="18"/>
       <c r="AD22" s="18"/>
       <c r="AE22" s="18"/>
       <c r="AF22" s="18"/>
     </row>
-    <row r="23" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="52"/>
+    <row r="23" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="48"/>
       <c r="B23" s="24">
         <v>30521</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="37">
         <v>305</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="41"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -2897,37 +2880,37 @@
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
       <c r="V23" s="18"/>
       <c r="W23" s="18"/>
       <c r="X23" s="18"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
       <c r="AC23" s="18"/>
       <c r="AD23" s="18"/>
       <c r="AE23" s="18"/>
       <c r="AF23" s="18"/>
     </row>
-    <row r="24" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="52"/>
+    <row r="24" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="48"/>
       <c r="B24" s="24">
         <v>30522</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="37">
         <v>305</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="41"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -2939,37 +2922,37 @@
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
       <c r="V24" s="18"/>
       <c r="W24" s="18"/>
       <c r="X24" s="18"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="18"/>
       <c r="AE24" s="18"/>
       <c r="AF24" s="18"/>
     </row>
-    <row r="25" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="52"/>
+    <row r="25" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="48"/>
       <c r="B25" s="24">
         <v>30523</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="37">
         <v>305</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="41"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -2981,37 +2964,37 @@
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
       <c r="V25" s="18"/>
       <c r="W25" s="18"/>
       <c r="X25" s="18"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
       <c r="AC25" s="18"/>
       <c r="AD25" s="18"/>
       <c r="AE25" s="18"/>
       <c r="AF25" s="18"/>
     </row>
-    <row r="26" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="52"/>
+    <row r="26" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="48"/>
       <c r="B26" s="24">
         <v>30524</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="37">
         <v>305</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="41"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -3023,37 +3006,37 @@
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
       <c r="V26" s="18"/>
       <c r="W26" s="18"/>
       <c r="X26" s="18"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="41"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
       <c r="AC26" s="18"/>
       <c r="AD26" s="18"/>
       <c r="AE26" s="18"/>
       <c r="AF26" s="18"/>
     </row>
-    <row r="27" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="52"/>
+    <row r="27" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="48"/>
       <c r="B27" s="24">
         <v>30525</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27" s="37">
         <v>305</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="41"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -3065,24 +3048,24 @@
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
       <c r="R27" s="18"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
       <c r="X27" s="18"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
       <c r="AC27" s="18"/>
       <c r="AD27" s="18"/>
       <c r="AE27" s="18"/>
       <c r="AF27" s="18"/>
     </row>
-    <row r="28" spans="1:32" s="42" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="52" t="s">
-        <v>115</v>
+    <row r="28" spans="1:32" s="39" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="48" t="s">
+        <v>114</v>
       </c>
       <c r="B28" s="24">
         <v>30526</v>
@@ -3090,7 +3073,7 @@
       <c r="C28" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="37">
         <v>305</v>
       </c>
       <c r="E28" s="19" t="s">
@@ -3099,7 +3082,7 @@
       <c r="F28" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="41"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -3111,24 +3094,24 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
       <c r="V28" s="18"/>
       <c r="W28" s="18"/>
       <c r="X28" s="18"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
       <c r="AC28" s="18"/>
       <c r="AD28" s="18"/>
       <c r="AE28" s="18"/>
       <c r="AF28" s="18"/>
     </row>
-    <row r="29" spans="1:32" s="42" customFormat="1" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="A29" s="52" t="s">
-        <v>115</v>
+    <row r="29" spans="1:32" s="39" customFormat="1" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="A29" s="48" t="s">
+        <v>114</v>
       </c>
       <c r="B29" s="24">
         <v>30527</v>
@@ -3136,7 +3119,7 @@
       <c r="C29" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="37">
         <v>305</v>
       </c>
       <c r="E29" s="25" t="s">
@@ -3145,7 +3128,7 @@
       <c r="F29" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="41"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
@@ -3157,24 +3140,24 @@
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
       <c r="R29" s="18"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
       <c r="V29" s="18"/>
       <c r="W29" s="18"/>
       <c r="X29" s="18"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="41"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
       <c r="AC29" s="18"/>
       <c r="AD29" s="18"/>
       <c r="AE29" s="18"/>
       <c r="AF29" s="18"/>
     </row>
-    <row r="30" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="52" t="s">
-        <v>116</v>
+    <row r="30" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="48" t="s">
+        <v>115</v>
       </c>
       <c r="B30" s="24">
         <v>30528</v>
@@ -3182,14 +3165,14 @@
       <c r="C30" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="37">
         <v>305</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="41"/>
+      <c r="G30" s="38"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
@@ -3201,24 +3184,24 @@
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
       <c r="R30" s="18"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
       <c r="V30" s="18"/>
       <c r="W30" s="18"/>
       <c r="X30" s="18"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="41"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
       <c r="AC30" s="18"/>
       <c r="AD30" s="18"/>
       <c r="AE30" s="18"/>
       <c r="AF30" s="18"/>
     </row>
-    <row r="31" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="52" t="s">
-        <v>117</v>
+    <row r="31" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="48" t="s">
+        <v>116</v>
       </c>
       <c r="B31" s="24">
         <v>30529</v>
@@ -3226,14 +3209,14 @@
       <c r="C31" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="37">
         <v>305</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="41"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
@@ -3245,24 +3228,24 @@
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
       <c r="R31" s="18"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
       <c r="V31" s="18"/>
       <c r="W31" s="18"/>
       <c r="X31" s="18"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38"/>
       <c r="AC31" s="18"/>
       <c r="AD31" s="18"/>
       <c r="AE31" s="18"/>
       <c r="AF31" s="18"/>
     </row>
-    <row r="32" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="52" t="s">
-        <v>113</v>
+    <row r="32" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="48" t="s">
+        <v>112</v>
       </c>
       <c r="B32" s="24">
         <v>30530</v>
@@ -3270,14 +3253,14 @@
       <c r="C32" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="37">
         <v>305</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="41"/>
+      <c r="G32" s="38"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
@@ -3289,24 +3272,24 @@
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
       <c r="R32" s="18"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
       <c r="V32" s="18"/>
       <c r="W32" s="18"/>
       <c r="X32" s="18"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
       <c r="AC32" s="18"/>
       <c r="AD32" s="18"/>
       <c r="AE32" s="18"/>
       <c r="AF32" s="18"/>
     </row>
-    <row r="33" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="52" t="s">
-        <v>114</v>
+    <row r="33" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="48" t="s">
+        <v>113</v>
       </c>
       <c r="B33" s="24">
         <v>30531</v>
@@ -3314,14 +3297,14 @@
       <c r="C33" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="37">
         <v>305</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="41"/>
+      <c r="G33" s="38"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
@@ -3333,37 +3316,37 @@
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
       <c r="X33" s="18"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38"/>
       <c r="AC33" s="18"/>
       <c r="AD33" s="18"/>
       <c r="AE33" s="18"/>
       <c r="AF33" s="18"/>
     </row>
-    <row r="34" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="52"/>
+    <row r="34" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="48"/>
       <c r="B34" s="24">
         <v>30532</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="40">
+      <c r="D34" s="37">
         <v>305</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="G34" s="41"/>
+      <c r="G34" s="38"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
@@ -3375,37 +3358,37 @@
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
       <c r="R34" s="18"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
       <c r="V34" s="18"/>
       <c r="W34" s="18"/>
       <c r="X34" s="18"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
       <c r="AC34" s="18"/>
       <c r="AD34" s="18"/>
       <c r="AE34" s="18"/>
       <c r="AF34" s="18"/>
     </row>
-    <row r="35" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="52"/>
+    <row r="35" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="48"/>
       <c r="B35" s="24">
         <v>30533</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="37">
         <v>305</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="38"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
@@ -3417,29 +3400,29 @@
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
       <c r="V35" s="18"/>
       <c r="W35" s="18"/>
       <c r="X35" s="18"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38"/>
       <c r="AC35" s="18"/>
       <c r="AD35" s="18"/>
       <c r="AE35" s="18"/>
       <c r="AF35" s="18"/>
     </row>
-    <row r="36" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="54"/>
+    <row r="36" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="50"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
-      <c r="D36" s="40"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
-      <c r="G36" s="41"/>
+      <c r="G36" s="38"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
@@ -3451,29 +3434,29 @@
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
       <c r="V36" s="18"/>
       <c r="W36" s="18"/>
       <c r="X36" s="18"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="41"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38"/>
       <c r="AC36" s="18"/>
       <c r="AD36" s="18"/>
       <c r="AE36" s="18"/>
       <c r="AF36" s="18"/>
     </row>
-    <row r="37" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="54"/>
+    <row r="37" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="50"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
-      <c r="D37" s="40"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
-      <c r="G37" s="41"/>
+      <c r="G37" s="38"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
@@ -3485,29 +3468,29 @@
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
       <c r="R37" s="18"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
       <c r="V37" s="18"/>
       <c r="W37" s="18"/>
       <c r="X37" s="18"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="38"/>
       <c r="AC37" s="18"/>
       <c r="AD37" s="18"/>
       <c r="AE37" s="18"/>
       <c r="AF37" s="18"/>
     </row>
-    <row r="38" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="54"/>
+    <row r="38" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="50"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
-      <c r="D38" s="40"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
-      <c r="G38" s="41"/>
+      <c r="G38" s="38"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
@@ -3519,29 +3502,29 @@
       <c r="P38" s="18"/>
       <c r="Q38" s="18"/>
       <c r="R38" s="18"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
       <c r="V38" s="18"/>
       <c r="W38" s="18"/>
       <c r="X38" s="18"/>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="41"/>
-      <c r="AB38" s="41"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
       <c r="AC38" s="18"/>
       <c r="AD38" s="18"/>
       <c r="AE38" s="18"/>
       <c r="AF38" s="18"/>
     </row>
-    <row r="39" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="54"/>
+    <row r="39" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="50"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
-      <c r="D39" s="40"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="41"/>
+      <c r="G39" s="38"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -3553,29 +3536,29 @@
       <c r="P39" s="18"/>
       <c r="Q39" s="18"/>
       <c r="R39" s="18"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
       <c r="V39" s="18"/>
       <c r="W39" s="18"/>
       <c r="X39" s="18"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="41"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
       <c r="AC39" s="18"/>
       <c r="AD39" s="18"/>
       <c r="AE39" s="18"/>
       <c r="AF39" s="18"/>
     </row>
-    <row r="40" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="54"/>
+    <row r="40" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="50"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
-      <c r="D40" s="40"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
-      <c r="G40" s="41"/>
+      <c r="G40" s="38"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
@@ -3587,29 +3570,29 @@
       <c r="P40" s="18"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="18"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
       <c r="V40" s="18"/>
       <c r="W40" s="18"/>
       <c r="X40" s="18"/>
-      <c r="Y40" s="41"/>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="41"/>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="38"/>
+      <c r="AB40" s="38"/>
       <c r="AC40" s="18"/>
       <c r="AD40" s="18"/>
       <c r="AE40" s="18"/>
       <c r="AF40" s="18"/>
     </row>
-    <row r="41" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="54"/>
+    <row r="41" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="50"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
-      <c r="D41" s="40"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
-      <c r="G41" s="41"/>
+      <c r="G41" s="38"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
@@ -3621,37 +3604,37 @@
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="18"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
       <c r="V41" s="18"/>
       <c r="W41" s="18"/>
       <c r="X41" s="18"/>
-      <c r="Y41" s="41"/>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="41"/>
-      <c r="AB41" s="41"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
+      <c r="AB41" s="38"/>
       <c r="AC41" s="18"/>
       <c r="AD41" s="18"/>
       <c r="AE41" s="18"/>
       <c r="AF41" s="18"/>
     </row>
-    <row r="42" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="54"/>
+    <row r="42" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="50"/>
       <c r="B42" s="24">
         <v>31300</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="37">
         <v>313</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G42" s="41"/>
+      <c r="G42" s="38"/>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
@@ -3663,37 +3646,37 @@
       <c r="P42" s="18"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="18"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
       <c r="V42" s="18"/>
       <c r="W42" s="18"/>
       <c r="X42" s="18"/>
-      <c r="Y42" s="41"/>
-      <c r="Z42" s="41"/>
-      <c r="AA42" s="41"/>
-      <c r="AB42" s="41"/>
+      <c r="Y42" s="38"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="38"/>
+      <c r="AB42" s="38"/>
       <c r="AC42" s="18"/>
       <c r="AD42" s="18"/>
       <c r="AE42" s="18"/>
       <c r="AF42" s="18"/>
     </row>
-    <row r="43" spans="1:32" s="42" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="54"/>
+    <row r="43" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="50"/>
       <c r="B43" s="24">
         <v>31301</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="40">
+      <c r="D43" s="37">
         <v>313</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="41"/>
+      <c r="G43" s="38"/>
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
@@ -3705,16 +3688,16 @@
       <c r="P43" s="18"/>
       <c r="Q43" s="18"/>
       <c r="R43" s="18"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="41"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
       <c r="V43" s="18"/>
       <c r="W43" s="18"/>
       <c r="X43" s="18"/>
-      <c r="Y43" s="41"/>
-      <c r="Z43" s="41"/>
-      <c r="AA43" s="41"/>
-      <c r="AB43" s="41"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="38"/>
+      <c r="AB43" s="38"/>
       <c r="AC43" s="18"/>
       <c r="AD43" s="18"/>
       <c r="AE43" s="18"/>
@@ -3727,7 +3710,7 @@
       <c r="C44" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="40">
+      <c r="D44" s="37">
         <v>313</v>
       </c>
       <c r="F44" s="24" t="s">
@@ -3741,7 +3724,7 @@
       <c r="C45" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="40">
+      <c r="D45" s="37">
         <v>313</v>
       </c>
       <c r="F45" s="24" t="s">
@@ -3755,7 +3738,7 @@
       <c r="C46" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="40">
+      <c r="D46" s="37">
         <v>313</v>
       </c>
       <c r="F46" s="24" t="s">
@@ -3769,7 +3752,7 @@
       <c r="C47" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="50">
+      <c r="D47" s="46">
         <v>405</v>
       </c>
       <c r="F47" s="24" t="s">
@@ -3783,7 +3766,7 @@
       <c r="C48" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="50">
+      <c r="D48" s="46">
         <v>405</v>
       </c>
       <c r="F48" s="24" t="s">
@@ -3797,7 +3780,7 @@
       <c r="C49" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="50">
+      <c r="D49" s="46">
         <v>405</v>
       </c>
       <c r="F49" s="24" t="s">
@@ -3811,7 +3794,7 @@
       <c r="C50" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="50">
+      <c r="D50" s="46">
         <v>405</v>
       </c>
       <c r="F50" s="24" t="s">

--- a/로스트아크/데이터테이블/Skill_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B83C0C-674D-4A7E-B58E-B82230C69128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC82796-6821-4DB5-875C-503763CA32AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -498,10 +498,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬 아이콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬의 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -749,6 +745,10 @@
   </si>
   <si>
     <t>초각성 스킬 - 집중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 아이콘 파일명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1700,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1741,16 +1741,16 @@
     <row r="4" spans="2:17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="C4" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="E4" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>103</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>104</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="35"/>
@@ -1794,7 +1794,7 @@
         <v>47</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -1825,7 +1825,7 @@
         <v>47</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
@@ -1840,7 +1840,7 @@
         <v>47</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1891,7 +1891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:AF52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1917,7 +1917,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="43" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>23</v>
@@ -1963,13 +1963,13 @@
     </row>
     <row r="2" spans="1:32" s="43" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="24">
         <v>30500</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="37">
         <v>305</v>
@@ -2007,20 +2007,20 @@
     </row>
     <row r="3" spans="1:32" s="43" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="24">
         <v>30501</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="37">
         <v>305</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="38"/>
       <c r="H3" s="18"/>
@@ -2051,20 +2051,20 @@
     </row>
     <row r="4" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="24">
         <v>30502</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="37">
         <v>305</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="18"/>
@@ -2099,14 +2099,14 @@
         <v>30503</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="37">
         <v>305</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="18"/>
@@ -2137,13 +2137,13 @@
     </row>
     <row r="6" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="24">
         <v>30504</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="37">
         <v>305</v>
@@ -2185,14 +2185,14 @@
         <v>30505</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="37">
         <v>305</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="18"/>
@@ -2227,14 +2227,14 @@
         <v>30506</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="37">
         <v>305</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="18"/>
@@ -2269,14 +2269,14 @@
         <v>30507</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="37">
         <v>305</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="18"/>
@@ -2311,14 +2311,14 @@
         <v>30508</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="37">
         <v>305</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="18"/>
@@ -2353,14 +2353,14 @@
         <v>30509</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="37">
         <v>305</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="18"/>
@@ -2395,14 +2395,14 @@
         <v>30510</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="37">
         <v>305</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="18"/>
@@ -2437,14 +2437,14 @@
         <v>30511</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="37">
         <v>305</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="18"/>
@@ -2479,14 +2479,14 @@
         <v>30512</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="37">
         <v>305</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="18"/>
@@ -2521,14 +2521,14 @@
         <v>30513</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="37">
         <v>305</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="38"/>
       <c r="H15" s="18"/>
@@ -2563,14 +2563,14 @@
         <v>30514</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="37">
         <v>305</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="18"/>
@@ -2647,14 +2647,14 @@
         <v>30516</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="37">
         <v>305</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="18"/>
@@ -2689,14 +2689,14 @@
         <v>30517</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="37">
         <v>305</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="18"/>
@@ -2769,13 +2769,13 @@
     </row>
     <row r="21" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="24">
         <v>30519</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="37">
         <v>305</v>
@@ -2817,14 +2817,14 @@
         <v>30520</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="37">
         <v>305</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="18"/>
@@ -2859,14 +2859,14 @@
         <v>30521</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="37">
         <v>305</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="18"/>
@@ -2901,14 +2901,14 @@
         <v>30522</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="37">
         <v>305</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="18"/>
@@ -2985,14 +2985,14 @@
         <v>30524</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="37">
         <v>305</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="18"/>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="28" spans="1:32" s="39" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" s="24">
         <v>30526</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="29" spans="1:32" s="39" customFormat="1" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A29" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="24">
         <v>30527</v>
@@ -3157,20 +3157,20 @@
     </row>
     <row r="30" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" s="24">
         <v>30528</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="37">
         <v>305</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="18"/>
@@ -3201,20 +3201,20 @@
     </row>
     <row r="31" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" s="24">
         <v>30529</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="37">
         <v>305</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G31" s="38"/>
       <c r="H31" s="18"/>
@@ -3245,20 +3245,20 @@
     </row>
     <row r="32" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" s="24">
         <v>30530</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="37">
         <v>305</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G32" s="38"/>
       <c r="H32" s="18"/>
@@ -3289,20 +3289,20 @@
     </row>
     <row r="33" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B33" s="24">
         <v>30531</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="37">
         <v>305</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="18"/>
@@ -3337,14 +3337,14 @@
         <v>30532</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D34" s="37">
         <v>305</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34" s="38"/>
       <c r="H34" s="18"/>
@@ -3379,14 +3379,14 @@
         <v>30533</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35" s="37">
         <v>305</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G35" s="38"/>
       <c r="H35" s="18"/>

--- a/로스트아크/데이터테이블/Skill_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC82796-6821-4DB5-875C-503763CA32AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338C9D4D-5DFE-4E4A-9D54-54B55DECB3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="155">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>class_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,18 +396,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">스킬 정보 id </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icon_res</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,12 +414,6 @@
   <si>
     <t>정신을 집중 한 뒤 순간적으로 전방에 창을 찔러 {dmg_1}의 피해를 주며 창을 당겨 {dmg_1}의 피해를 주며 적들을 당겨온다. 이후 창을 휘둘러 {dmg_2}의 피해를 {hit_cnt_2}회 주고 찌르는 공격으로 {dmg_3}의 피해를 {hit_cnt_3}회 준다. 피니쉬로 전방으로 8m가량 전진하며 이동 공격을 하여 적에게 {dmg_4}의 피해를 주며 날려버린다. 이동 중 모험가 및 몬스터와 충돌이 무시된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lm_skill_01_26.png</t>
-  </si>
-  <si>
-    <t>lm_skill_01_27.png</t>
   </si>
   <si>
     <t>lm_skill_01_18.png</t>
@@ -498,10 +480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬의 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -736,10 +714,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>각성기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>초각성 스킬 - 난무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -749,6 +723,166 @@
   </si>
   <si>
     <t>스킬 아이콘 파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_01</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_02</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_03</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_04</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_05</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_06</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_07</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_08</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_09</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_10</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_11</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_12</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_13</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_14</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_15</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_16</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_17</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_18</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_19</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_20</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_21</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_22</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_23</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_24</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_25</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_26</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_27</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_28</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_29</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_30</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_31</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_32</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_33</t>
+  </si>
+  <si>
+    <t>스킬 정보 key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_info_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>스킬의 설명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (UI 표시용)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난무 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집중 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨달음 4티어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창술사 1차 각성기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창술사 2차 각성기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_01_26.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_skill_01_27.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1700,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1718,14 +1852,14 @@
     <row r="1" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C2" s="51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="53"/>
     </row>
     <row r="3" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>2</v>
@@ -1741,16 +1875,16 @@
     <row r="4" spans="2:17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="C4" s="31" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="35"/>
@@ -1766,19 +1900,19 @@
     </row>
     <row r="5" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -1791,10 +1925,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -1804,13 +1938,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -1819,13 +1953,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
@@ -1834,13 +1968,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1891,14 +2025,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:AF52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="50" customWidth="1"/>
-    <col min="2" max="2" width="8.09765625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="22.09765625" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" style="24" customWidth="1"/>
     <col min="3" max="3" width="20.796875" style="24" customWidth="1"/>
     <col min="4" max="4" width="11.19921875" style="46" customWidth="1"/>
     <col min="5" max="5" width="81.796875" style="24" customWidth="1"/>
@@ -1917,22 +2051,22 @@
   <sheetData>
     <row r="1" spans="1:32" s="43" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="47" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G1" s="38"/>
       <c r="H1" s="18"/>
@@ -1963,20 +2097,22 @@
     </row>
     <row r="2" spans="1:32" s="43" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="24">
-        <v>30500</v>
+        <v>100</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D2" s="37">
         <v>305</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="18">
-        <v>0</v>
+      <c r="E2" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="G2" s="38"/>
       <c r="H2" s="18"/>
@@ -2007,20 +2143,20 @@
     </row>
     <row r="3" spans="1:32" s="43" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="24">
-        <v>30501</v>
+        <v>93</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D3" s="37">
         <v>305</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G3" s="38"/>
       <c r="H3" s="18"/>
@@ -2051,20 +2187,20 @@
     </row>
     <row r="4" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="24">
-        <v>30502</v>
+        <v>92</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D4" s="37">
         <v>305</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="24" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="18"/>
@@ -2094,19 +2230,21 @@
       <c r="AF4" s="18"/>
     </row>
     <row r="5" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="48"/>
-      <c r="B5" s="24">
-        <v>30503</v>
+      <c r="A5" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D5" s="37">
         <v>305</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="18"/>
@@ -2137,20 +2275,20 @@
     </row>
     <row r="6" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="24">
-        <v>30504</v>
+        <v>101</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D6" s="37">
         <v>305</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="24">
-        <v>0</v>
+      <c r="F6" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="18"/>
@@ -2180,19 +2318,21 @@
       <c r="AF6" s="18"/>
     </row>
     <row r="7" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="49"/>
-      <c r="B7" s="24">
-        <v>30505</v>
+      <c r="A7" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D7" s="37">
         <v>305</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="24" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="18"/>
@@ -2222,19 +2362,21 @@
       <c r="AF7" s="18"/>
     </row>
     <row r="8" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="49"/>
-      <c r="B8" s="24">
-        <v>30506</v>
+      <c r="A8" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D8" s="37">
         <v>305</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="18"/>
@@ -2264,19 +2406,21 @@
       <c r="AF8" s="18"/>
     </row>
     <row r="9" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="49"/>
-      <c r="B9" s="24">
-        <v>30507</v>
+      <c r="A9" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>117</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D9" s="37">
         <v>305</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="18"/>
@@ -2306,19 +2450,21 @@
       <c r="AF9" s="18"/>
     </row>
     <row r="10" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="49"/>
-      <c r="B10" s="24">
-        <v>30508</v>
+      <c r="A10" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D10" s="37">
         <v>305</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="18"/>
@@ -2348,19 +2494,21 @@
       <c r="AF10" s="18"/>
     </row>
     <row r="11" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="49"/>
-      <c r="B11" s="24">
-        <v>30509</v>
+      <c r="A11" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D11" s="37">
         <v>305</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="18"/>
@@ -2390,19 +2538,21 @@
       <c r="AF11" s="18"/>
     </row>
     <row r="12" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="49"/>
-      <c r="B12" s="24">
-        <v>30510</v>
+      <c r="A12" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D12" s="37">
         <v>305</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="18"/>
@@ -2432,19 +2582,21 @@
       <c r="AF12" s="18"/>
     </row>
     <row r="13" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="49"/>
-      <c r="B13" s="24">
-        <v>30511</v>
+      <c r="A13" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D13" s="37">
         <v>305</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="18"/>
@@ -2474,19 +2626,21 @@
       <c r="AF13" s="18"/>
     </row>
     <row r="14" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="49"/>
-      <c r="B14" s="24">
-        <v>30512</v>
+      <c r="A14" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D14" s="37">
         <v>305</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="18"/>
@@ -2516,19 +2670,21 @@
       <c r="AF14" s="18"/>
     </row>
     <row r="15" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="49"/>
-      <c r="B15" s="24">
-        <v>30513</v>
+      <c r="A15" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D15" s="37">
         <v>305</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G15" s="38"/>
       <c r="H15" s="18"/>
@@ -2558,19 +2714,21 @@
       <c r="AF15" s="18"/>
     </row>
     <row r="16" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="49"/>
-      <c r="B16" s="24">
-        <v>30514</v>
+      <c r="A16" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D16" s="37">
         <v>305</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="18"/>
@@ -2600,19 +2758,21 @@
       <c r="AF16" s="18"/>
     </row>
     <row r="17" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="49"/>
-      <c r="B17" s="24">
-        <v>30515</v>
+      <c r="A17" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="37">
         <v>305</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="18"/>
@@ -2642,19 +2802,21 @@
       <c r="AF17" s="18"/>
     </row>
     <row r="18" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="49"/>
-      <c r="B18" s="24">
-        <v>30516</v>
+      <c r="A18" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D18" s="37">
         <v>305</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="18"/>
@@ -2684,19 +2846,21 @@
       <c r="AF18" s="18"/>
     </row>
     <row r="19" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="49"/>
-      <c r="B19" s="24">
-        <v>30517</v>
+      <c r="A19" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D19" s="37">
         <v>305</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="18"/>
@@ -2726,9 +2890,11 @@
       <c r="AF19" s="18"/>
     </row>
     <row r="20" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="49"/>
-      <c r="B20" s="24">
-        <v>30518</v>
+      <c r="A20" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>5</v>
@@ -2738,7 +2904,7 @@
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="18"/>
@@ -2769,20 +2935,20 @@
     </row>
     <row r="21" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="24">
-        <v>30519</v>
+        <v>104</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D21" s="37">
         <v>305</v>
       </c>
       <c r="E21" s="18"/>
-      <c r="F21" s="24">
-        <v>0</v>
+      <c r="F21" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="G21" s="38"/>
       <c r="H21" s="18"/>
@@ -2812,19 +2978,21 @@
       <c r="AF21" s="18"/>
     </row>
     <row r="22" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="48"/>
-      <c r="B22" s="24">
-        <v>30520</v>
+      <c r="A22" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D22" s="37">
         <v>305</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="24" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="18"/>
@@ -2854,19 +3022,21 @@
       <c r="AF22" s="18"/>
     </row>
     <row r="23" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="48"/>
-      <c r="B23" s="24">
-        <v>30521</v>
+      <c r="A23" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D23" s="37">
         <v>305</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="24" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="18"/>
@@ -2896,19 +3066,21 @@
       <c r="AF23" s="18"/>
     </row>
     <row r="24" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="48"/>
-      <c r="B24" s="24">
-        <v>30522</v>
+      <c r="A24" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D24" s="37">
         <v>305</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="24" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="18"/>
@@ -2938,19 +3110,21 @@
       <c r="AF24" s="18"/>
     </row>
     <row r="25" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="48"/>
-      <c r="B25" s="24">
-        <v>30523</v>
+      <c r="A25" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="37">
         <v>305</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="18"/>
@@ -2980,19 +3154,21 @@
       <c r="AF25" s="18"/>
     </row>
     <row r="26" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="48"/>
-      <c r="B26" s="24">
-        <v>30524</v>
+      <c r="A26" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>134</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D26" s="37">
         <v>305</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="18"/>
@@ -3022,9 +3198,11 @@
       <c r="AF26" s="18"/>
     </row>
     <row r="27" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="48"/>
-      <c r="B27" s="24">
-        <v>30525</v>
+      <c r="A27" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>6</v>
@@ -3034,7 +3212,7 @@
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G27" s="38"/>
       <c r="H27" s="18"/>
@@ -3065,10 +3243,10 @@
     </row>
     <row r="28" spans="1:32" s="39" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="24">
-        <v>30526</v>
+        <v>151</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>3</v>
@@ -3077,10 +3255,10 @@
         <v>305</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="18"/>
@@ -3111,10 +3289,10 @@
     </row>
     <row r="29" spans="1:32" s="39" customFormat="1" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A29" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="24">
-        <v>30527</v>
+        <v>152</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>4</v>
@@ -3123,10 +3301,10 @@
         <v>305</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="G29" s="38"/>
       <c r="H29" s="18"/>
@@ -3157,20 +3335,20 @@
     </row>
     <row r="30" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="24">
-        <v>30528</v>
+        <v>107</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D30" s="37">
         <v>305</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="18"/>
@@ -3201,20 +3379,20 @@
     </row>
     <row r="31" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="24">
-        <v>30529</v>
+        <v>108</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D31" s="37">
         <v>305</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G31" s="38"/>
       <c r="H31" s="18"/>
@@ -3245,20 +3423,20 @@
     </row>
     <row r="32" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="24">
-        <v>30530</v>
+        <v>105</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>140</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D32" s="37">
         <v>305</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G32" s="38"/>
       <c r="H32" s="18"/>
@@ -3289,20 +3467,20 @@
     </row>
     <row r="33" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="24">
-        <v>30531</v>
+        <v>106</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D33" s="37">
         <v>305</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="18"/>
@@ -3332,19 +3510,21 @@
       <c r="AF33" s="18"/>
     </row>
     <row r="34" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="48"/>
-      <c r="B34" s="24">
-        <v>30532</v>
+      <c r="A34" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D34" s="37">
         <v>305</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G34" s="38"/>
       <c r="H34" s="18"/>
@@ -3374,19 +3554,21 @@
       <c r="AF34" s="18"/>
     </row>
     <row r="35" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="48"/>
-      <c r="B35" s="24">
-        <v>30533</v>
+      <c r="A35" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>143</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D35" s="37">
         <v>305</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G35" s="38"/>
       <c r="H35" s="18"/>
@@ -3625,14 +3807,14 @@
         <v>31300</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42" s="37">
         <v>313</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G42" s="38"/>
       <c r="H42" s="18"/>
@@ -3667,14 +3849,14 @@
         <v>31301</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="37">
         <v>313</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G43" s="38"/>
       <c r="H43" s="18"/>
@@ -3708,13 +3890,13 @@
         <v>31302</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" s="37">
         <v>313</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.4">
@@ -3722,13 +3904,13 @@
         <v>31303</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="37">
         <v>313</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.4">
@@ -3736,13 +3918,13 @@
         <v>31304</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" s="37">
         <v>313</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.4">
@@ -3750,13 +3932,13 @@
         <v>40500</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" s="46">
         <v>405</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.4">
@@ -3764,13 +3946,13 @@
         <v>40501</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" s="46">
         <v>405</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.4">
@@ -3778,13 +3960,13 @@
         <v>40502</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D49" s="46">
         <v>405</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.4">
@@ -3792,18 +3974,18 @@
         <v>40503</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" s="46">
         <v>405</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.4">
       <c r="F51" s="24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.4">

--- a/로스트아크/데이터테이블/Skill_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338C9D4D-5DFE-4E4A-9D54-54B55DECB3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FCB5AA-5CD3-4C19-BE2B-598F0939ED23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -2025,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:AF52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/로스트아크/데이터테이블/Skill_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FCB5AA-5CD3-4C19-BE2B-598F0939ED23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F7A8A3-02E7-41B5-A318-0B4B4D0AEB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="4284" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -1834,7 +1834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2025,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:AF52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/로스트아크/데이터테이블/Skill_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F7A8A3-02E7-41B5-A318-0B4B4D0AEB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E397B4-FFC5-4EFC-95A4-5617B8F6FE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4284" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="156">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -883,6 +883,10 @@
   </si>
   <si>
     <t>lm_skill_01_27.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자리에서 창을 돌린 뒤 바닥에 강하게 내려찍어 충격파가 퍼져 적에게 {dmg_1}의 피해를 준다. 스킬 시전 시 연가공법을 발동시켜 6초 동안 치명타 적중률이 2.0%* 증가한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1349,7 +1353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1511,6 +1515,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1834,7 +1841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2025,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:AF52"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2035,7 +2042,7 @@
     <col min="2" max="2" width="16.796875" style="24" customWidth="1"/>
     <col min="3" max="3" width="20.796875" style="24" customWidth="1"/>
     <col min="4" max="4" width="11.19921875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="81.796875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="81.796875" style="54" customWidth="1"/>
     <col min="6" max="6" width="19" style="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.69921875" style="44" customWidth="1"/>
     <col min="8" max="9" width="15.69921875" style="25" customWidth="1"/>
@@ -2108,7 +2115,7 @@
       <c r="D2" s="37">
         <v>305</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="18" t="s">
         <v>95</v>
       </c>
       <c r="F2" s="18" t="s">
@@ -2154,7 +2161,7 @@
       <c r="D3" s="37">
         <v>305</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="24" t="s">
         <v>90</v>
       </c>
@@ -2198,7 +2205,7 @@
       <c r="D4" s="37">
         <v>305</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="24" t="s">
         <v>91</v>
       </c>
@@ -2242,7 +2249,7 @@
       <c r="D5" s="37">
         <v>305</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="24" t="s">
         <v>94</v>
       </c>
@@ -2286,7 +2293,7 @@
       <c r="D6" s="37">
         <v>305</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="24" t="s">
         <v>95</v>
       </c>
@@ -2374,7 +2381,7 @@
       <c r="D8" s="37">
         <v>305</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="24" t="s">
         <v>64</v>
       </c>
@@ -2418,7 +2425,7 @@
       <c r="D9" s="37">
         <v>305</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="24" t="s">
         <v>65</v>
       </c>
@@ -2462,7 +2469,7 @@
       <c r="D10" s="37">
         <v>305</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="24" t="s">
         <v>66</v>
       </c>
@@ -2506,7 +2513,7 @@
       <c r="D11" s="37">
         <v>305</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="24" t="s">
         <v>67</v>
       </c>
@@ -2550,7 +2557,7 @@
       <c r="D12" s="37">
         <v>305</v>
       </c>
-      <c r="E12" s="24"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="24" t="s">
         <v>68</v>
       </c>
@@ -2594,7 +2601,7 @@
       <c r="D13" s="37">
         <v>305</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="24" t="s">
         <v>69</v>
       </c>
@@ -2638,7 +2645,7 @@
       <c r="D14" s="37">
         <v>305</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="54"/>
       <c r="F14" s="24" t="s">
         <v>70</v>
       </c>
@@ -2682,7 +2689,7 @@
       <c r="D15" s="37">
         <v>305</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="24" t="s">
         <v>71</v>
       </c>
@@ -2726,7 +2733,7 @@
       <c r="D16" s="37">
         <v>305</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="54"/>
       <c r="F16" s="24" t="s">
         <v>72</v>
       </c>
@@ -2770,7 +2777,7 @@
       <c r="D17" s="37">
         <v>305</v>
       </c>
-      <c r="E17" s="24"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="24" t="s">
         <v>30</v>
       </c>
@@ -2814,7 +2821,7 @@
       <c r="D18" s="37">
         <v>305</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="24" t="s">
         <v>73</v>
       </c>
@@ -2858,7 +2865,7 @@
       <c r="D19" s="37">
         <v>305</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="54"/>
       <c r="F19" s="24" t="s">
         <v>74</v>
       </c>
@@ -2889,7 +2896,7 @@
       <c r="AE19" s="18"/>
       <c r="AF19" s="18"/>
     </row>
-    <row r="20" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" s="39" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A20" s="49" t="s">
         <v>148</v>
       </c>
@@ -2902,7 +2909,9 @@
       <c r="D20" s="37">
         <v>305</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="54" t="s">
+        <v>155</v>
+      </c>
       <c r="F20" s="24" t="s">
         <v>27</v>
       </c>
@@ -2946,7 +2955,7 @@
       <c r="D21" s="37">
         <v>305</v>
       </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="24" t="s">
         <v>95</v>
       </c>
@@ -2990,7 +2999,7 @@
       <c r="D22" s="37">
         <v>305</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="24" t="s">
         <v>75</v>
       </c>
@@ -3034,7 +3043,7 @@
       <c r="D23" s="37">
         <v>305</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="24" t="s">
         <v>76</v>
       </c>
@@ -3078,7 +3087,7 @@
       <c r="D24" s="37">
         <v>305</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="24" t="s">
         <v>77</v>
       </c>
@@ -3122,7 +3131,7 @@
       <c r="D25" s="37">
         <v>305</v>
       </c>
-      <c r="E25" s="24"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="24" t="s">
         <v>29</v>
       </c>
@@ -3166,7 +3175,7 @@
       <c r="D26" s="37">
         <v>305</v>
       </c>
-      <c r="E26" s="24"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="24" t="s">
         <v>78</v>
       </c>
@@ -3210,7 +3219,7 @@
       <c r="D27" s="37">
         <v>305</v>
       </c>
-      <c r="E27" s="24"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="24" t="s">
         <v>28</v>
       </c>
@@ -3300,7 +3309,7 @@
       <c r="D29" s="37">
         <v>305</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="19" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="24" t="s">
@@ -3346,7 +3355,7 @@
       <c r="D30" s="37">
         <v>305</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="54"/>
       <c r="F30" s="24" t="s">
         <v>79</v>
       </c>
@@ -3390,7 +3399,7 @@
       <c r="D31" s="37">
         <v>305</v>
       </c>
-      <c r="E31" s="24"/>
+      <c r="E31" s="54"/>
       <c r="F31" s="24" t="s">
         <v>80</v>
       </c>
@@ -3434,7 +3443,7 @@
       <c r="D32" s="37">
         <v>305</v>
       </c>
-      <c r="E32" s="24"/>
+      <c r="E32" s="54"/>
       <c r="F32" s="24" t="s">
         <v>81</v>
       </c>
@@ -3478,7 +3487,7 @@
       <c r="D33" s="37">
         <v>305</v>
       </c>
-      <c r="E33" s="24"/>
+      <c r="E33" s="54"/>
       <c r="F33" s="24" t="s">
         <v>82</v>
       </c>
@@ -3522,7 +3531,7 @@
       <c r="D34" s="37">
         <v>305</v>
       </c>
-      <c r="E34" s="24"/>
+      <c r="E34" s="54"/>
       <c r="F34" s="24" t="s">
         <v>84</v>
       </c>
@@ -3566,7 +3575,7 @@
       <c r="D35" s="37">
         <v>305</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="54"/>
       <c r="F35" s="24" t="s">
         <v>86</v>
       </c>
@@ -3602,7 +3611,7 @@
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
       <c r="D36" s="37"/>
-      <c r="E36" s="24"/>
+      <c r="E36" s="54"/>
       <c r="F36" s="24"/>
       <c r="G36" s="38"/>
       <c r="H36" s="18"/>
@@ -3636,7 +3645,7 @@
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="37"/>
-      <c r="E37" s="24"/>
+      <c r="E37" s="54"/>
       <c r="F37" s="24"/>
       <c r="G37" s="38"/>
       <c r="H37" s="18"/>
@@ -3670,7 +3679,7 @@
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="37"/>
-      <c r="E38" s="24"/>
+      <c r="E38" s="54"/>
       <c r="F38" s="24"/>
       <c r="G38" s="38"/>
       <c r="H38" s="18"/>
@@ -3704,7 +3713,7 @@
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
       <c r="D39" s="37"/>
-      <c r="E39" s="24"/>
+      <c r="E39" s="54"/>
       <c r="F39" s="24"/>
       <c r="G39" s="38"/>
       <c r="H39" s="18"/>
@@ -3738,7 +3747,7 @@
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
       <c r="D40" s="37"/>
-      <c r="E40" s="24"/>
+      <c r="E40" s="54"/>
       <c r="F40" s="24"/>
       <c r="G40" s="38"/>
       <c r="H40" s="18"/>
@@ -3772,7 +3781,7 @@
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
       <c r="D41" s="37"/>
-      <c r="E41" s="24"/>
+      <c r="E41" s="54"/>
       <c r="F41" s="24"/>
       <c r="G41" s="38"/>
       <c r="H41" s="18"/>
@@ -3812,7 +3821,7 @@
       <c r="D42" s="37">
         <v>313</v>
       </c>
-      <c r="E42" s="24"/>
+      <c r="E42" s="54"/>
       <c r="F42" s="24" t="s">
         <v>31</v>
       </c>
@@ -3854,7 +3863,7 @@
       <c r="D43" s="37">
         <v>313</v>
       </c>
-      <c r="E43" s="24"/>
+      <c r="E43" s="54"/>
       <c r="F43" s="24" t="s">
         <v>32</v>
       </c>

--- a/로스트아크/데이터테이블/Skill_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A6EBF7-89C5-497F-B718-7A232C5C9E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B73118-6669-4B24-9CAA-E811E402A6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="304">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,10 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수라결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유성강천</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,22 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데스 브링어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디 엔드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베스티지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>길로틴 스윙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,24 +413,9 @@
     <t>ifm_skill_01_26.png</t>
   </si>
   <si>
-    <t>ifm_skill_01_27.png</t>
-  </si>
-  <si>
     <t>ifm_skill_01_25.png</t>
   </si>
   <si>
-    <t>se_skill_01_20.png</t>
-  </si>
-  <si>
-    <t>se_skill_01_21.png</t>
-  </si>
-  <si>
-    <t>se_skill_01_18.png</t>
-  </si>
-  <si>
-    <t>se_skill_01_19.png</t>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -615,10 +580,6 @@
   </si>
   <si>
     <t>기상기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -980,6 +941,506 @@
   </si>
   <si>
     <t>창으로 전방을 방어하며, 자신의 최대 생명력의 {max_hp_shield}% 만큼 적의 공격을 막아낼 수 있다. 이때 {atk_time}초 안에 적의 공격에 방어를 성공하면 전방으로 강하게 창을 찔러 적에게 {dmg_1}의 피해를 2회 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브레이커 기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_00</t>
+  </si>
+  <si>
+    <t>BREAKER_01</t>
+  </si>
+  <si>
+    <t>BREAKER_02</t>
+  </si>
+  <si>
+    <t>BREAKER_03</t>
+  </si>
+  <si>
+    <t>BREAKER_04</t>
+  </si>
+  <si>
+    <t>BREAKER_05</t>
+  </si>
+  <si>
+    <t>BREAKER_06</t>
+  </si>
+  <si>
+    <t>BREAKER_07</t>
+  </si>
+  <si>
+    <t>BREAKER_08</t>
+  </si>
+  <si>
+    <t>BREAKER_09</t>
+  </si>
+  <si>
+    <t>BREAKER_10</t>
+  </si>
+  <si>
+    <t>BREAKER_11</t>
+  </si>
+  <si>
+    <t>BREAKER_12</t>
+  </si>
+  <si>
+    <t>BREAKER_13</t>
+  </si>
+  <si>
+    <t>BREAKER_14</t>
+  </si>
+  <si>
+    <t>BREAKER_15</t>
+  </si>
+  <si>
+    <t>BREAKER_16</t>
+  </si>
+  <si>
+    <t>BREAKER_17</t>
+  </si>
+  <si>
+    <t>BREAKER_18</t>
+  </si>
+  <si>
+    <t>BREAKER_19</t>
+  </si>
+  <si>
+    <t>BREAKER_20</t>
+  </si>
+  <si>
+    <t>BREAKER_21</t>
+  </si>
+  <si>
+    <t>BREAKER_22</t>
+  </si>
+  <si>
+    <t>BREAKER_23</t>
+  </si>
+  <si>
+    <t>BREAKER_26</t>
+  </si>
+  <si>
+    <t>BREAKER_27</t>
+  </si>
+  <si>
+    <t>BREAKER_28</t>
+  </si>
+  <si>
+    <t>BREAKER_29</t>
+  </si>
+  <si>
+    <t>BREAKER_30</t>
+  </si>
+  <si>
+    <t>BREAKER_31</t>
+  </si>
+  <si>
+    <t>BREAKER_32</t>
+  </si>
+  <si>
+    <t>BREAKER_33</t>
+  </si>
+  <si>
+    <t>유성낙하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifm_skill_01_10.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_11.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_12.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_13.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_14.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_15.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_16.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_17.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_18.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_19.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_20.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_21.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_24.png</t>
+  </si>
+  <si>
+    <t>비상격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청월난무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천기심권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파천섬광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연의붕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>징벌의 파도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대지파쇄권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권왕의 진격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifm_skill_01_2.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_3.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_4.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_5.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_6.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_7.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_8.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_9.png</t>
+  </si>
+  <si>
+    <t>연쇄 돌풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비뢰격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기력 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충격 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉결타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속전격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백렬권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금강난격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>척결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휩쓸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진 파공권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천왕지무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초각성스킬 - 기력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성운멸쇄권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초각성스킬 - 충격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일월신권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천견지종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifm_skill_01_28.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_29.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_30.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_31.png</t>
+  </si>
+  <si>
+    <t>ifm_skill_01_32.png</t>
+  </si>
+  <si>
+    <t>ark_passive_ifm_8.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권왕십이식 : 풍랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권왕태세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수라결 기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수라 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수라 상태 이동기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수라 비영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수라 상태 진입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권왕 태세 Z 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수라의 길 X 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권왕태세 진입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'수라결' 효과를 획득하며 이동기 스킬이 변경되고, 기본 공격이 수라결 기본 공격으로 변경된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 6m 이동하며 {dmg_1}의 피해를 3회 준 뒤, 헤비 건틀릿으로 내려찍으며 {dmg_2}의 피해를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤비 건틀릿에 권기를 담아 전방의 직선상에 있는 적들을 향해 날려 {dmg_1}, {dmg_1}, {dmg_2}의 피해를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤비 건틀릿으로 내려치며 {dmg_1}의 피해를 2회 주고, 반동을 이용하여 강하게 올려치며 {dmg_2}의 피해를 주고 넘어뜨린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤비 건틀릿에 에너지 모아 10m 내 지정한 위치로 도약하여 지면을 내려쳐 적중된 적에게 {dmg_1}의 피해를 주고 넘어뜨린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤비 건틀릿을 바깥 방향으로 빠르게 휘둘러 적중된 적에게 {dmg_1}의 피해를 주고, 피격이상 중인 적 공격 시 공중에 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상체를 숙이며 후방으로 미끄러지듯 5m 이동한다. 추가 키 입력 시 전방으로 빠르게 7m 이동한 뒤 헤비 건틀릿으로 전방을 타격하며 {dmg_1}의 피해를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤비 건틀릿으로 전방을 타격하여 {dmg_1}의 피해를 준 뒤, 홀딩 시 {dmg_2}의 피해를 주는 빠른 잽 공격을 최대 6회 타격 한다. 잽 공격이 종료되면 마무리 공격을 하며 {dmg_3}, {dmg_4} 피해를 준다. 피격이상 중인 적 공격 시 공중에 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 이동하며 뒤를 돌아 헤비 건틀릿의 바깥쪽으로 공격하며 {dmg_1}의 피해를 준 뒤, 다시 반대로 돌아 한번 더 공격하여 {dmg_1}의 피해를 주고 피격이상 중인 적 공격 시 공중에 띄운다. 공격 중 추가 키 입력 시 전방으로 주먹을 강하게 내지르며 {dmg_2}의 피해를 주고 피격이상 중인 적을 날려버린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탭을 밟으며 연속해서 훅을 날려 {dmg_1}, {dmg_1}, {dmg_1}, {dmg_1}의 피해를 주고 피격이상 중인 적을 공중으로 띄운다. 이후 강력한 어퍼 공격으로 {dmg_2}의 피해를 주며 적을 날려버린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자리에서 공중으로 도약한 뒤 헤비 건틀릿을 전방 아래 방향으로 내려치며 {dmg_1}의 피해를 준다. 피격이상 중인 적 공격 시 내리꽂는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 힘껏 헤비 건틀릿을 휘두르며 {dmg_1}의 피해를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방을 향해 어퍼 공격을 하며 최대 {dmg_1}의 피해를 주고 적중된 적을 공중에 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤비 건틀릿으로 지면을 강타하며 주변으로 충격파를 발생시켜 {dmg_1}, {dmg_2}의 피해를 주고 적중된 적을 날려버린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤비 건틀릿에 기를 모은 뒤 전방으로 힘껏 내지르며 강력한 충격 에너지 폭발을 발생시켜 {dmg_1}의 피해를 주고 적중된 적에게 내부 충격을 발생시켜 2초 뒤 {dmg_2}의 피해를 추가로 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스 건틀릿을 생성해 전방으로 내지르며 에너지를 회전시켜 {dmg_1}의 피해를 4회 입히고 피격이상 중인 적 공격 시 공중에 띄운다. 이후, 회전중인 에너지를 폭발시키며 {dmg_2}의 피해를 입히고 적을 날려버린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스 건틀릿을 생성하여 전방으로 3회 타격하여 {dmg_1}, {dmg_1}, {dmg_2}의 피해를 주고 마지막 공격에 적중된 적을 날려버린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주먹을 쥐고 자세를 잡은 뒤 집중을 하며 주변에 4개의 포스 건틀릿을 생성한 뒤 헤비 건틀릿으로 전방을 타격하면서 {dmg_1}의 피해를 주고, 동시에 모든 포스 건틀릿이 직선 방향으로 발사되며 {dmg_1}의 피해를 4회 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방을 타격할 준비 자세를 취한 뒤 포스 건틀릿을 생성시키며 일정 시간동안 에너지를 모은 후 빛의 속도로 전방 상단을 타격해 {dmg_1}의 피해를 주고 적을 날려버린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방에 무형의 천문을 생성한다. 일정 시간동안 호흡을 하고 일순간 천문을 타격하며 전방의 적에게 {dmg_1}의 피해를 주고 적을 날려버린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 빠르게 돌진하며 {dmg_1}의 피해를 준다. 권왕태세 혹은 수라 상태가 아닐 때, 암영이 등장해 주변을 빠르게 4회 공격하며 각각 {dmg_2}의 피해를 주고 공중으로 순간적으로 이동 후 지면을 향해 강하게 내려찍으며 주변의 적에게 {dmg_3}의 피해를 주고 날려버린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거대한 포스 건틀릿을 생성한 뒤 전방 지면을 향해 강하게 내려찍으며 {dmg_1}의 피해를 주고 날려버린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명상을 통해 내면의 공간으로 들어가 전방에 거대한 종을 생성한다. 종을 한번 타격하며 주변의 적들에게 {dmg_1}의 피해를 준 뒤, 한번 더 강력하게 종을 타격하며 종과 함께 전방의 적을 날려버리고 {dmg_2}의 피해를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 이동하며 스탭 마다 그림자를 4회 생성한다. 각각의 그림자들은 생성된 후 이동 동작을 이어서 한 뒤 전방으로 돌격하며 {dmg_1}, {dmg_1}, {dmg_1}, {dmg_1}의 피해를 주고 적을 날려버린다. 모든 그림자들을 생성 시킨 뒤 에너지를 모아 포스 건틀릿을 생성시키며 전방으로 돌진하며 포스 건틀릿에 모인 에너지를 폭발시키며 {dmg_2}의 피해를 주고 적을 날려버린다. 모든 공격을 마치고 포스 건틀릿을 해제하며 투지 에너지 및 수라 에너지를 {identity_gauge_recover}% 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권왕태세를 취하며 일시적으로 강력한 기운이 몸에서 뿜어져 나오는 상태로 공격 속도가 {atk_spd}% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점을 향해 점프하며 최고 높이에서 포스 건틀릿을 생성한 후 지면으로 내려 찍으며 {dmg_1}의 피해를 주며 적을 띄운 뒤, 지면에서 폭발이 발생해 {dmg_2}의 피해를 주고 날려버린다. 최대 14m 이동 가능하다. 최대 3단계까지 차지할 수 있으며, 1단계 차지할 때마다 충격 에너지 {shock_gauge}을 획득한다. 보유한 충격 에너지 1당 적에게 주는 피해가 {outgoing_dmg}% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0초동안 피격이상에 면역되고 최대 생명력의 {max_hp_shield}%에 해당하는 보호막을 획득한다. 받는 피해가 {hit_receive_dmg}%감소하며 특정 보스 등급 이상에게 피격 시 발생하는 패널티 게이지가 {penalty_gauge}% 감소된다. 호신투기 상태 중 피격 시 1회에 한해 호신투기 유지시간이 {duration}초 증가한다. 호신투기 사용 후 10.0초 간 투기흡수 상태에 들어가 호신투기를 사용할 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스 건틀릿을 생성하여 전방을 향해 정권 공격을 하며 {dmg_1}의 피해를 준 뒤, 포스 건틀릿에 에너지를 쏟아부어 폭발시켜 {dmg_2}의 피해를 준다. 보유한 충격 에너지 1당 적에게 주는 피해가 {outgoing_dmg}% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양손에 포스 건틀릿을 생성한 뒤 전방으로 방출하며 각각 {dmg_1}, {dmg_1}의 피해를 준 뒤, 오른손에 강화된 포스 건틀릿을 생성하여 기를 모아 전방으로 방출하며 {dmg_2}의 피해를 주고 적을 날려버린다. 강화된 포스 건틀릿 방출 시 투지 에너지 및 수라 에너지를 {identity_gauge_recover}% 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스킬의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>습득 조건</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquisition_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 습득 조건 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquisition_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1472,7 +1933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1518,12 +1979,6 @@
     <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1608,6 +2063,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1617,23 +2102,11 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1955,190 +2428,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:Q21"/>
+  <dimension ref="B1:Q23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="4.3984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.8984375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="52.09765625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="8.69921875" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="22"/>
+    <col min="1" max="1" width="4.19921875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="52.09765625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-    </row>
-    <row r="3" spans="2:17" s="53" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="50" t="s">
+      <c r="C2" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+    </row>
+    <row r="3" spans="2:17" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="21"/>
-      <c r="C4" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="30">
+      <c r="B5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="28">
         <f>ROW(C5)-4</f>
         <v>1</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="23"/>
+      <c r="D5" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="34"/>
-      <c r="C6" s="35">
-        <f t="shared" ref="C6:C9" si="0">ROW(C6)-4</f>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33">
+        <f t="shared" ref="C6:C11" si="0">ROW(C6)-4</f>
         <v>2</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="23"/>
+      <c r="E6" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>153</v>
+      <c r="E7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35">
+      <c r="B8" s="32"/>
+      <c r="C8" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>154</v>
+      <c r="D8" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B9" s="34"/>
-      <c r="C9" s="35">
+      <c r="B9" s="32"/>
+      <c r="C9" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="F14" s="44"/>
+      <c r="D9" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B10" s="32"/>
+      <c r="C10" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="F15" s="28"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="F16" s="22"/>
+      <c r="F16" s="42"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F17" s="22"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F18" s="22"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F19" s="22"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F20" s="22"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F21" s="22"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F23" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2153,10 +2658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:AF54"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
@@ -2164,27 +2669,29 @@
     <col min="1" max="1" width="16.69921875" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.796875" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.19921875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="118.09765625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.69921875" style="18" customWidth="1"/>
-    <col min="8" max="9" width="15.69921875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="18.69921875" style="11" customWidth="1"/>
-    <col min="11" max="18" width="15.69921875" style="11" customWidth="1"/>
-    <col min="19" max="21" width="15.69921875" style="18" customWidth="1"/>
-    <col min="22" max="23" width="15.69921875" style="11" customWidth="1"/>
-    <col min="24" max="24" width="18.69921875" style="11" customWidth="1"/>
-    <col min="25" max="28" width="15.69921875" style="18" customWidth="1"/>
-    <col min="29" max="32" width="18.69921875" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="8.796875" style="11"/>
+    <col min="4" max="4" width="7.19921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="102.296875" style="50" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" style="16" customWidth="1"/>
+    <col min="10" max="11" width="15.69921875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="18.69921875" style="11" customWidth="1"/>
+    <col min="13" max="20" width="15.69921875" style="11" customWidth="1"/>
+    <col min="21" max="23" width="15.69921875" style="16" customWidth="1"/>
+    <col min="24" max="25" width="15.69921875" style="11" customWidth="1"/>
+    <col min="26" max="26" width="18.69921875" style="11" customWidth="1"/>
+    <col min="27" max="30" width="15.69921875" style="16" customWidth="1"/>
+    <col min="31" max="34" width="18.69921875" style="11" customWidth="1"/>
+    <col min="35" max="16384" width="8.796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="8" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" s="8" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>7</v>
@@ -2192,15 +2699,19 @@
       <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="E1" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="6"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
@@ -2210,43 +2721,36 @@
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
       <c r="U1" s="6"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
       <c r="X1" s="7"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
       <c r="AE1" s="7"/>
       <c r="AF1" s="7"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
-        <v>97</v>
+        <v>269</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="14">
-        <v>305</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="9"/>
+        <v>269</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="57"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -2256,41 +2760,45 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="9"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
       <c r="X2" s="10"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
       <c r="AE2" s="10"/>
       <c r="AF2" s="10"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D3" s="14">
         <v>305</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="9"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
@@ -2300,53 +2808,74 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
       <c r="U3" s="9"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
       <c r="X3" s="10"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
-    </row>
-    <row r="4" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D4" s="14">
         <v>305</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="H4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
       <c r="U4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
-    </row>
-    <row r="5" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+    </row>
+    <row r="5" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>85</v>
@@ -2354,1039 +2883,2021 @@
       <c r="D5" s="14">
         <v>305</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="9"/>
       <c r="U5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
-    </row>
-    <row r="6" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+    </row>
+    <row r="6" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="13" t="s">
         <v>99</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="D6" s="14">
         <v>305</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="9"/>
       <c r="U6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
-    </row>
-    <row r="7" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="17" t="s">
-        <v>144</v>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+    </row>
+    <row r="7" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="D7" s="14">
         <v>305</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="9"/>
       <c r="U7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
-    </row>
-    <row r="8" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="17"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+    </row>
+    <row r="8" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="B8" s="13" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D8" s="14">
         <v>305</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="9"/>
       <c r="U8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
-    </row>
-    <row r="9" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A9" s="17"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+    </row>
+    <row r="9" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="15"/>
       <c r="B9" s="13" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D9" s="14">
         <v>305</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="9"/>
       <c r="U9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
-    </row>
-    <row r="10" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+    </row>
+    <row r="10" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="15"/>
       <c r="B10" s="13" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D10" s="14">
         <v>305</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="9"/>
       <c r="U10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
-    </row>
-    <row r="11" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="17"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+    </row>
+    <row r="11" spans="1:34" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A11" s="15"/>
       <c r="B11" s="13" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D11" s="14">
         <v>305</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="9"/>
       <c r="U11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
-    </row>
-    <row r="12" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="17"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+    </row>
+    <row r="12" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="15"/>
       <c r="B12" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D12" s="14">
         <v>305</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="9"/>
       <c r="U12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
-    </row>
-    <row r="13" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A13" s="17"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+    </row>
+    <row r="13" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="15"/>
       <c r="B13" s="13" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D13" s="14">
         <v>305</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="9"/>
       <c r="U13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
-    </row>
-    <row r="14" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+    </row>
+    <row r="14" spans="1:34" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A14" s="15"/>
       <c r="B14" s="13" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D14" s="14">
         <v>305</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="9"/>
       <c r="U14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
-    </row>
-    <row r="15" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A15" s="17"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+    </row>
+    <row r="15" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="15"/>
       <c r="B15" s="13" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D15" s="14">
         <v>305</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="9"/>
       <c r="U15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
-    </row>
-    <row r="16" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="17"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+    </row>
+    <row r="16" spans="1:34" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A16" s="15"/>
       <c r="B16" s="13" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D16" s="14">
         <v>305</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="9"/>
       <c r="U16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
-    </row>
-    <row r="17" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="17"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+    </row>
+    <row r="17" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="15"/>
       <c r="B17" s="13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D17" s="14">
         <v>305</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="9"/>
       <c r="U17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
-    </row>
-    <row r="18" spans="1:28" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A18" s="17"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+    </row>
+    <row r="18" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="15"/>
       <c r="B18" s="13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D18" s="14">
         <v>305</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="9"/>
       <c r="U18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
-    </row>
-    <row r="19" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A19" s="17"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+    </row>
+    <row r="19" spans="1:30" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="A19" s="15"/>
       <c r="B19" s="13" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D19" s="14">
         <v>305</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="9"/>
       <c r="U19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
-    </row>
-    <row r="20" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A20" s="17"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+    </row>
+    <row r="20" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A20" s="15"/>
       <c r="B20" s="13" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D20" s="14">
         <v>305</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="9"/>
       <c r="U20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
-    </row>
-    <row r="21" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="12" t="s">
-        <v>101</v>
-      </c>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+    </row>
+    <row r="21" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A21" s="15"/>
       <c r="B21" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>100</v>
+        <v>114</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="D21" s="14">
         <v>305</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="9"/>
       <c r="U21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
-    </row>
-    <row r="22" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+    </row>
+    <row r="22" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D22" s="14">
         <v>305</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="9"/>
       <c r="U22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
-    </row>
-    <row r="23" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="12"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+    </row>
+    <row r="23" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="B23" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D23" s="14">
         <v>305</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="9"/>
       <c r="U23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
-    </row>
-    <row r="24" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+    </row>
+    <row r="24" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="12"/>
       <c r="B24" s="13" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D24" s="14">
         <v>305</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="9"/>
       <c r="U24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
-    </row>
-    <row r="25" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+    </row>
+    <row r="25" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12"/>
       <c r="B25" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>14</v>
+        <v>118</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="D25" s="14">
         <v>305</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="9"/>
       <c r="U25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
-    </row>
-    <row r="26" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+    </row>
+    <row r="26" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="12"/>
       <c r="B26" s="13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D26" s="14">
         <v>305</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="9"/>
       <c r="U26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
-    </row>
-    <row r="27" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+    </row>
+    <row r="27" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A27" s="12"/>
       <c r="B27" s="13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D27" s="14">
         <v>305</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="9"/>
       <c r="U27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
-    </row>
-    <row r="28" spans="1:28" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A28" s="12" t="s">
-        <v>149</v>
-      </c>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+    </row>
+    <row r="28" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A28" s="12"/>
       <c r="B28" s="13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D28" s="14">
         <v>305</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="9"/>
       <c r="U28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
-    </row>
-    <row r="29" spans="1:28" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+    </row>
+    <row r="29" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="14">
         <v>305</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="9"/>
       <c r="U29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
-    </row>
-    <row r="30" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+    </row>
+    <row r="30" spans="1:30" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D30" s="14">
         <v>305</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30" s="9"/>
       <c r="U30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
-    </row>
-    <row r="31" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+    </row>
+    <row r="31" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="12" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D31" s="14">
         <v>305</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="9"/>
       <c r="U31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
-    </row>
-    <row r="32" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+    </row>
+    <row r="32" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="12" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D32" s="14">
         <v>305</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="9"/>
       <c r="U32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
-    </row>
-    <row r="33" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+    </row>
+    <row r="33" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D33" s="14">
         <v>305</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="9"/>
       <c r="U33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
-    </row>
-    <row r="34" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+    </row>
+    <row r="34" spans="1:34" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A34" s="12" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D34" s="14">
         <v>305</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="9"/>
       <c r="U34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
-    </row>
-    <row r="35" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+    </row>
+    <row r="35" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="12" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D35" s="14">
         <v>305</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="9"/>
       <c r="U35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
-    </row>
-    <row r="36" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+    </row>
+    <row r="36" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="14">
+        <v>305</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" s="9"/>
       <c r="U36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
-    </row>
-    <row r="37" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+    </row>
+    <row r="37" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>269</v>
+      </c>
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="9"/>
       <c r="U37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
-    </row>
-    <row r="38" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A38" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="14">
+        <v>313</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
       <c r="U38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
-    </row>
-    <row r="39" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A39" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" s="14">
+        <v>313</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="H39" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
       <c r="U39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
-    </row>
-    <row r="40" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+    </row>
+    <row r="40" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D40" s="14">
+        <v>313</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="I40" s="9"/>
       <c r="U40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
-    </row>
-    <row r="41" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+    </row>
+    <row r="41" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="14">
+        <v>313</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="I41" s="9"/>
       <c r="U41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
-    </row>
-    <row r="42" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
+      <c r="AC41" s="9"/>
+      <c r="AD41" s="9"/>
+    </row>
+    <row r="42" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="C42" s="13" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="D42" s="14">
         <v>313</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="I42" s="9"/>
       <c r="U42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
-    </row>
-    <row r="43" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
+    </row>
+    <row r="43" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="15"/>
+      <c r="B43" s="13" t="s">
+        <v>176</v>
+      </c>
       <c r="C43" s="13" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="D43" s="14">
         <v>313</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I43" s="9"/>
       <c r="U43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+    </row>
+    <row r="44" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="15"/>
+      <c r="B44" s="13" t="s">
+        <v>177</v>
+      </c>
       <c r="C44" s="13" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="D44" s="14">
         <v>313</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
+    </row>
+    <row r="45" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="15"/>
+      <c r="B45" s="13" t="s">
+        <v>178</v>
+      </c>
       <c r="C45" s="13" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="D45" s="14">
         <v>313</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="9"/>
+      <c r="AD45" s="9"/>
+    </row>
+    <row r="46" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="15"/>
+      <c r="B46" s="13" t="s">
+        <v>179</v>
+      </c>
       <c r="C46" s="13" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="D46" s="14">
         <v>313</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="D47" s="14"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+    </row>
+    <row r="47" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="15"/>
+      <c r="B47" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="14">
+        <v>313</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+    </row>
+    <row r="48" spans="1:34" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A48" s="15"/>
+      <c r="B48" s="13" t="s">
+        <v>181</v>
+      </c>
       <c r="C48" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="19">
-        <v>405</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+        <v>239</v>
+      </c>
+      <c r="D48" s="14">
+        <v>313</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
+    </row>
+    <row r="49" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A49" s="15"/>
+      <c r="B49" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="C49" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="19">
-        <v>405</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+        <v>240</v>
+      </c>
+      <c r="D49" s="14">
+        <v>313</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
+    </row>
+    <row r="50" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A50" s="15"/>
+      <c r="B50" s="13" t="s">
+        <v>183</v>
+      </c>
       <c r="C50" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="19">
-        <v>405</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+        <v>222</v>
+      </c>
+      <c r="D50" s="14">
+        <v>313</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="9"/>
+      <c r="AC50" s="9"/>
+      <c r="AD50" s="9"/>
+    </row>
+    <row r="51" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>184</v>
+      </c>
       <c r="C51" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="19">
-        <v>405</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B54" s="10"/>
+        <v>241</v>
+      </c>
+      <c r="D51" s="14">
+        <v>313</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+    </row>
+    <row r="52" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D52" s="14">
+        <v>313</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+    </row>
+    <row r="53" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D53" s="14">
+        <v>313</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+    </row>
+    <row r="54" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="15"/>
+      <c r="B54" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="14">
+        <v>313</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+    </row>
+    <row r="55" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A55" s="15"/>
+      <c r="B55" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D55" s="14">
+        <v>313</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="9"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
+    </row>
+    <row r="56" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A56" s="15"/>
+      <c r="B56" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" s="14">
+        <v>313</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="9"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+    </row>
+    <row r="57" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="12"/>
+      <c r="B57" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" s="14">
+        <v>313</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+    </row>
+    <row r="58" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A58" s="12"/>
+      <c r="B58" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="14">
+        <v>313</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+    </row>
+    <row r="59" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="12"/>
+      <c r="B59" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D59" s="14">
+        <v>313</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="9"/>
+    </row>
+    <row r="60" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="14">
+        <v>313</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="9"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="9"/>
+    </row>
+    <row r="61" spans="1:30" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="A61" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="14">
+        <v>313</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="9"/>
+    </row>
+    <row r="62" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D62" s="14">
+        <v>313</v>
+      </c>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
+    </row>
+    <row r="63" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D63" s="14">
+        <v>313</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="AA63" s="9"/>
+      <c r="AB63" s="9"/>
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
+    </row>
+    <row r="64" spans="1:30" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="A64" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="14">
+        <v>313</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="AA64" s="9"/>
+      <c r="AB64" s="9"/>
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
+    </row>
+    <row r="65" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="14">
+        <v>313</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="AA65" s="9"/>
+      <c r="AB65" s="9"/>
+      <c r="AC65" s="9"/>
+      <c r="AD65" s="9"/>
+    </row>
+    <row r="66" spans="1:30" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="A66" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="14">
+        <v>313</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="AA66" s="9"/>
+      <c r="AB66" s="9"/>
+      <c r="AC66" s="9"/>
+      <c r="AD66" s="9"/>
+    </row>
+    <row r="67" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A67" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D67" s="14">
+        <v>313</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="AA67" s="9"/>
+      <c r="AB67" s="9"/>
+      <c r="AC67" s="9"/>
+      <c r="AD67" s="9"/>
+    </row>
+    <row r="68" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D68" s="14">
+        <v>313</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="9"/>
+      <c r="AC68" s="9"/>
+      <c r="AD68" s="9"/>
+    </row>
+    <row r="69" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A69" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D69" s="14">
+        <v>313</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="AA69" s="9"/>
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="9"/>
+      <c r="AD69" s="9"/>
+    </row>
+    <row r="70" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A70" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D70" s="14">
+        <v>313</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="AA70" s="9"/>
+      <c r="AB70" s="9"/>
+      <c r="AC70" s="9"/>
+      <c r="AD70" s="9"/>
+    </row>
+    <row r="71" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A71" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71" s="14">
+        <v>313</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="AA71" s="9"/>
+      <c r="AB71" s="9"/>
+      <c r="AC71" s="9"/>
+      <c r="AD71" s="9"/>
+    </row>
+    <row r="72" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="AA72" s="9"/>
+      <c r="AB72" s="9"/>
+      <c r="AC72" s="9"/>
+      <c r="AD72" s="9"/>
+    </row>
+    <row r="73" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="AA73" s="9"/>
+      <c r="AB73" s="9"/>
+      <c r="AC73" s="9"/>
+      <c r="AD73" s="9"/>
+    </row>
+    <row r="74" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="AA74" s="9"/>
+      <c r="AB74" s="9"/>
+      <c r="AC74" s="9"/>
+      <c r="AD74" s="9"/>
+    </row>
+    <row r="75" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="12"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="AA75" s="9"/>
+      <c r="AB75" s="9"/>
+      <c r="AC75" s="9"/>
+      <c r="AD75" s="9"/>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="B78" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/Skill_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B73118-6669-4B24-9CAA-E811E402A6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B043A6-4027-43F2-A5A9-6FF15D979C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -108,6 +108,7 @@
           </rPr>
           <t xml:space="preserve">
 112 : 슬레이어
+113 : 발키리
 </t>
         </r>
         <r>
@@ -306,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="298">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1403,44 +1404,6 @@
   </si>
   <si>
     <t>양손에 포스 건틀릿을 생성한 뒤 전방으로 방출하며 각각 {dmg_1}, {dmg_1}의 피해를 준 뒤, 오른손에 강화된 포스 건틀릿을 생성하여 기를 모아 전방으로 방출하며 {dmg_2}의 피해를 주고 적을 날려버린다. 강화된 포스 건틀릿 방출 시 투지 에너지 및 수라 에너지를 {identity_gauge_recover}% 회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">스킬의 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>습득 조건</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acquisition_condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬의 습득 조건 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acquisition_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1933,7 +1896,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2100,12 +2063,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2428,10 +2385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:Q23"/>
+  <dimension ref="B1:Q21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -2518,7 +2475,7 @@
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="32"/>
       <c r="C6" s="33">
-        <f t="shared" ref="C6:C11" si="0">ROW(C6)-4</f>
+        <f t="shared" ref="C6:C9" si="0">ROW(C6)-4</f>
         <v>2</v>
       </c>
       <c r="D6" s="34" t="s">
@@ -2555,13 +2512,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>299</v>
+        <v>132</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>298</v>
+        <v>29</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
@@ -2571,61 +2528,35 @@
         <v>5</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B10" s="32"/>
-      <c r="C10" s="33">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B11" s="32"/>
-      <c r="C11" s="33">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="36" t="s">
+      <c r="F9" s="36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
+    <row r="10" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="F16" s="42"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F17" s="26"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F18" s="20"/>
@@ -2638,12 +2569,6 @@
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F23" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2658,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
@@ -2670,23 +2595,21 @@
     <col min="2" max="2" width="12.796875" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.3984375" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.19921875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="102.296875" style="50" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" style="16" customWidth="1"/>
-    <col min="10" max="11" width="15.69921875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="18.69921875" style="11" customWidth="1"/>
-    <col min="13" max="20" width="15.69921875" style="11" customWidth="1"/>
-    <col min="21" max="23" width="15.69921875" style="16" customWidth="1"/>
-    <col min="24" max="25" width="15.69921875" style="11" customWidth="1"/>
-    <col min="26" max="26" width="18.69921875" style="11" customWidth="1"/>
-    <col min="27" max="30" width="15.69921875" style="16" customWidth="1"/>
-    <col min="31" max="34" width="18.69921875" style="11" customWidth="1"/>
-    <col min="35" max="16384" width="8.796875" style="11"/>
+    <col min="5" max="5" width="102.296875" style="50" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" style="16" customWidth="1"/>
+    <col min="8" max="9" width="15.69921875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="18.69921875" style="11" customWidth="1"/>
+    <col min="11" max="18" width="15.69921875" style="11" customWidth="1"/>
+    <col min="19" max="21" width="15.69921875" style="16" customWidth="1"/>
+    <col min="22" max="23" width="15.69921875" style="11" customWidth="1"/>
+    <col min="24" max="24" width="18.69921875" style="11" customWidth="1"/>
+    <col min="25" max="28" width="15.69921875" style="16" customWidth="1"/>
+    <col min="29" max="32" width="18.69921875" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="8.796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="8" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" s="8" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -2699,19 +2622,15 @@
       <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>303</v>
-      </c>
-      <c r="G1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
@@ -2721,24 +2640,22 @@
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
       <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
       <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
       <c r="AE1" s="7"/>
       <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>269</v>
       </c>
@@ -2747,10 +2664,10 @@
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="57"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="9"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -2760,24 +2677,22 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
       <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
       <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
       <c r="AE2" s="10"/>
       <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>86</v>
       </c>
@@ -2790,15 +2705,15 @@
       <c r="D3" s="14">
         <v>305</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="50" t="s">
+      <c r="E3" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
@@ -2808,24 +2723,22 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
       <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
       <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>79</v>
       </c>
@@ -2838,12 +2751,12 @@
       <c r="D4" s="14">
         <v>305</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="H4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -2853,24 +2766,22 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
       <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
       <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-    </row>
-    <row r="5" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>78</v>
       </c>
@@ -2883,22 +2794,20 @@
       <c r="D5" s="14">
         <v>305</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="13" t="s">
+      <c r="E5" s="50"/>
+      <c r="F5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
       <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-    </row>
-    <row r="6" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>75</v>
       </c>
@@ -2911,22 +2820,20 @@
       <c r="D6" s="14">
         <v>305</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="13" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
       <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-    </row>
-    <row r="7" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>87</v>
       </c>
@@ -2939,22 +2846,20 @@
       <c r="D7" s="14">
         <v>305</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="13" t="s">
+      <c r="E7" s="50"/>
+      <c r="F7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
       <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-    </row>
-    <row r="8" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>133</v>
       </c>
@@ -2967,24 +2872,22 @@
       <c r="D8" s="14">
         <v>305</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="50" t="s">
+      <c r="E8" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
       <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-    </row>
-    <row r="9" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15"/>
       <c r="B9" s="13" t="s">
         <v>102</v>
@@ -2995,24 +2898,22 @@
       <c r="D9" s="14">
         <v>305</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="50" t="s">
+      <c r="E9" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
       <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-    </row>
-    <row r="10" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
       <c r="B10" s="13" t="s">
         <v>103</v>
@@ -3023,24 +2924,22 @@
       <c r="D10" s="14">
         <v>305</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="50" t="s">
+      <c r="E10" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
       <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-    </row>
-    <row r="11" spans="1:34" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A11" s="15"/>
       <c r="B11" s="13" t="s">
         <v>104</v>
@@ -3051,24 +2950,22 @@
       <c r="D11" s="14">
         <v>305</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="50" t="s">
+      <c r="E11" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
       <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-    </row>
-    <row r="12" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
       <c r="B12" s="13" t="s">
         <v>105</v>
@@ -3079,24 +2976,22 @@
       <c r="D12" s="14">
         <v>305</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="50" t="s">
+      <c r="E12" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="F12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
       <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-    </row>
-    <row r="13" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
       <c r="B13" s="13" t="s">
         <v>106</v>
@@ -3107,24 +3002,22 @@
       <c r="D13" s="14">
         <v>305</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="50" t="s">
+      <c r="E13" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="F13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
       <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-    </row>
-    <row r="14" spans="1:34" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
       <c r="B14" s="13" t="s">
         <v>107</v>
@@ -3135,24 +3028,22 @@
       <c r="D14" s="14">
         <v>305</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="50" t="s">
+      <c r="E14" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="F14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
       <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-    </row>
-    <row r="15" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15"/>
       <c r="B15" s="13" t="s">
         <v>108</v>
@@ -3163,24 +3054,22 @@
       <c r="D15" s="14">
         <v>305</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="50" t="s">
+      <c r="E15" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="F15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
       <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-    </row>
-    <row r="16" spans="1:34" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A16" s="15"/>
       <c r="B16" s="13" t="s">
         <v>109</v>
@@ -3191,24 +3080,22 @@
       <c r="D16" s="14">
         <v>305</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="50" t="s">
+      <c r="E16" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="F16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
       <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-    </row>
-    <row r="17" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15"/>
       <c r="B17" s="13" t="s">
         <v>110</v>
@@ -3219,24 +3106,22 @@
       <c r="D17" s="14">
         <v>305</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="50" t="s">
+      <c r="E17" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="F17" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
       <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-    </row>
-    <row r="18" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15"/>
       <c r="B18" s="13" t="s">
         <v>111</v>
@@ -3247,24 +3132,22 @@
       <c r="D18" s="14">
         <v>305</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="50" t="s">
+      <c r="E18" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="F18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
       <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-    </row>
-    <row r="19" spans="1:30" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:28" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A19" s="15"/>
       <c r="B19" s="13" t="s">
         <v>112</v>
@@ -3275,24 +3158,22 @@
       <c r="D19" s="14">
         <v>305</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="50" t="s">
+      <c r="E19" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="F19" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
       <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-    </row>
-    <row r="20" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A20" s="15"/>
       <c r="B20" s="13" t="s">
         <v>113</v>
@@ -3303,24 +3184,22 @@
       <c r="D20" s="14">
         <v>305</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="50" t="s">
+      <c r="E20" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="F20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
       <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-    </row>
-    <row r="21" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A21" s="15"/>
       <c r="B21" s="13" t="s">
         <v>114</v>
@@ -3331,24 +3210,22 @@
       <c r="D21" s="14">
         <v>305</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="50" t="s">
+      <c r="E21" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="F21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
       <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-    </row>
-    <row r="22" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>90</v>
       </c>
@@ -3361,22 +3238,20 @@
       <c r="D22" s="14">
         <v>305</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="13" t="s">
+      <c r="E22" s="50"/>
+      <c r="F22" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
       <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-    </row>
-    <row r="23" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>134</v>
       </c>
@@ -3389,24 +3264,22 @@
       <c r="D23" s="14">
         <v>305</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="50" t="s">
+      <c r="E23" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
       <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-    </row>
-    <row r="24" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="12"/>
       <c r="B24" s="13" t="s">
         <v>117</v>
@@ -3417,24 +3290,22 @@
       <c r="D24" s="14">
         <v>305</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="50" t="s">
+      <c r="E24" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
       <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-    </row>
-    <row r="25" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12"/>
       <c r="B25" s="13" t="s">
         <v>118</v>
@@ -3445,24 +3316,22 @@
       <c r="D25" s="14">
         <v>305</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="50" t="s">
+      <c r="E25" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="F25" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
       <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-    </row>
-    <row r="26" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="12"/>
       <c r="B26" s="13" t="s">
         <v>119</v>
@@ -3473,24 +3342,22 @@
       <c r="D26" s="14">
         <v>305</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="50" t="s">
+      <c r="E26" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
       <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-    </row>
-    <row r="27" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A27" s="12"/>
       <c r="B27" s="13" t="s">
         <v>120</v>
@@ -3501,24 +3368,22 @@
       <c r="D27" s="14">
         <v>305</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="50" t="s">
+      <c r="E27" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="F27" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
       <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-    </row>
-    <row r="28" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A28" s="12"/>
       <c r="B28" s="13" t="s">
         <v>121</v>
@@ -3529,24 +3394,22 @@
       <c r="D28" s="14">
         <v>305</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="50" t="s">
+      <c r="E28" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="F28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
       <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-    </row>
-    <row r="29" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
         <v>138</v>
       </c>
@@ -3559,24 +3422,22 @@
       <c r="D29" s="14">
         <v>305</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="50" t="s">
+      <c r="E29" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="F29" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
       <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-    </row>
-    <row r="30" spans="1:30" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:28" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
         <v>139</v>
       </c>
@@ -3589,24 +3450,22 @@
       <c r="D30" s="14">
         <v>305</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="50" t="s">
+      <c r="E30" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="F30" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
       <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-    </row>
-    <row r="31" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="12" t="s">
         <v>93</v>
       </c>
@@ -3619,24 +3478,22 @@
       <c r="D31" s="14">
         <v>305</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="50" t="s">
+      <c r="E31" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="F31" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
       <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-    </row>
-    <row r="32" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="12" t="s">
         <v>94</v>
       </c>
@@ -3649,24 +3506,22 @@
       <c r="D32" s="14">
         <v>305</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="50" t="s">
+      <c r="E32" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="F32" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
       <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-    </row>
-    <row r="33" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="12" t="s">
         <v>91</v>
       </c>
@@ -3679,24 +3534,22 @@
       <c r="D33" s="14">
         <v>305</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="50" t="s">
+      <c r="E33" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="F33" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
       <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-    </row>
-    <row r="34" spans="1:34" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A34" s="12" t="s">
         <v>92</v>
       </c>
@@ -3709,24 +3562,22 @@
       <c r="D34" s="14">
         <v>305</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="50" t="s">
+      <c r="E34" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="F34" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
       <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-    </row>
-    <row r="35" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="12" t="s">
         <v>135</v>
       </c>
@@ -3739,24 +3590,22 @@
       <c r="D35" s="14">
         <v>305</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="50" t="s">
+      <c r="E35" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="F35" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
       <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-    </row>
-    <row r="36" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>135</v>
       </c>
@@ -3769,22 +3618,20 @@
       <c r="D36" s="14">
         <v>305</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="13" t="s">
+      <c r="E36" s="50"/>
+      <c r="F36" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
       <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-    </row>
-    <row r="37" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="12" t="s">
         <v>269</v>
       </c>
@@ -3793,20 +3640,18 @@
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="9"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
       <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="9"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A38" s="12" t="s">
         <v>169</v>
       </c>
@@ -3819,15 +3664,15 @@
       <c r="D38" s="14">
         <v>313</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="50" t="s">
+      <c r="E38" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="F38" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
@@ -3837,24 +3682,22 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
       <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
       <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
       <c r="AE38" s="10"/>
       <c r="AF38" s="10"/>
-      <c r="AG38" s="10"/>
-      <c r="AH38" s="10"/>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A39" s="12" t="s">
         <v>168</v>
       </c>
@@ -3867,12 +3710,12 @@
       <c r="D39" s="14">
         <v>313</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="H39" s="13" t="s">
+      <c r="F39" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
@@ -3882,24 +3725,22 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
       <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
       <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
-      <c r="AC39" s="9"/>
-      <c r="AD39" s="9"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
       <c r="AE39" s="10"/>
       <c r="AF39" s="10"/>
-      <c r="AG39" s="10"/>
-      <c r="AH39" s="10"/>
-    </row>
-    <row r="40" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="12" t="s">
         <v>261</v>
       </c>
@@ -3912,22 +3753,20 @@
       <c r="D40" s="14">
         <v>313</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="13" t="s">
+      <c r="E40" s="50"/>
+      <c r="F40" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="I40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
       <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
-      <c r="AC40" s="9"/>
-      <c r="AD40" s="9"/>
-    </row>
-    <row r="41" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="12" t="s">
         <v>75</v>
       </c>
@@ -3940,22 +3779,20 @@
       <c r="D41" s="14">
         <v>313</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="13" t="s">
+      <c r="E41" s="50"/>
+      <c r="F41" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="I41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
       <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="9"/>
-    </row>
-    <row r="42" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="12" t="s">
         <v>235</v>
       </c>
@@ -3968,24 +3805,22 @@
       <c r="D42" s="14">
         <v>313</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="50" t="s">
+      <c r="E42" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="F42" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="I42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
       <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="9"/>
-    </row>
-    <row r="43" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="15"/>
       <c r="B43" s="13" t="s">
         <v>176</v>
@@ -3996,24 +3831,22 @@
       <c r="D43" s="14">
         <v>313</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="50" t="s">
+      <c r="E43" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="F43" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="I43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
       <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="9"/>
-    </row>
-    <row r="44" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="15"/>
       <c r="B44" s="13" t="s">
         <v>177</v>
@@ -4024,24 +3857,22 @@
       <c r="D44" s="14">
         <v>313</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="50" t="s">
+      <c r="E44" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="F44" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="I44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
       <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
-      <c r="AC44" s="9"/>
-      <c r="AD44" s="9"/>
-    </row>
-    <row r="45" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="15"/>
       <c r="B45" s="13" t="s">
         <v>178</v>
@@ -4052,24 +3883,22 @@
       <c r="D45" s="14">
         <v>313</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="50" t="s">
+      <c r="E45" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="F45" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="I45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
       <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
-      <c r="AC45" s="9"/>
-      <c r="AD45" s="9"/>
-    </row>
-    <row r="46" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="15"/>
       <c r="B46" s="13" t="s">
         <v>179</v>
@@ -4080,24 +3909,22 @@
       <c r="D46" s="14">
         <v>313</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="50" t="s">
+      <c r="E46" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="F46" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="I46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
       <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
-      <c r="AD46" s="9"/>
-    </row>
-    <row r="47" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="15"/>
       <c r="B47" s="13" t="s">
         <v>180</v>
@@ -4108,24 +3935,22 @@
       <c r="D47" s="14">
         <v>313</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="50" t="s">
+      <c r="E47" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="F47" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="I47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
       <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9"/>
-      <c r="AC47" s="9"/>
-      <c r="AD47" s="9"/>
-    </row>
-    <row r="48" spans="1:34" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A48" s="15"/>
       <c r="B48" s="13" t="s">
         <v>181</v>
@@ -4136,24 +3961,22 @@
       <c r="D48" s="14">
         <v>313</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="50" t="s">
+      <c r="E48" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="F48" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="I48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
       <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
       <c r="AA48" s="9"/>
       <c r="AB48" s="9"/>
-      <c r="AC48" s="9"/>
-      <c r="AD48" s="9"/>
-    </row>
-    <row r="49" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A49" s="15"/>
       <c r="B49" s="13" t="s">
         <v>182</v>
@@ -4164,24 +3987,22 @@
       <c r="D49" s="14">
         <v>313</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="50" t="s">
+      <c r="E49" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="F49" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="I49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
       <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
       <c r="AA49" s="9"/>
       <c r="AB49" s="9"/>
-      <c r="AC49" s="9"/>
-      <c r="AD49" s="9"/>
-    </row>
-    <row r="50" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A50" s="15"/>
       <c r="B50" s="13" t="s">
         <v>183</v>
@@ -4192,24 +4013,22 @@
       <c r="D50" s="14">
         <v>313</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="50" t="s">
+      <c r="E50" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="F50" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="I50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
       <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
       <c r="AA50" s="9"/>
       <c r="AB50" s="9"/>
-      <c r="AC50" s="9"/>
-      <c r="AD50" s="9"/>
-    </row>
-    <row r="51" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="15" t="s">
         <v>236</v>
       </c>
@@ -4222,24 +4041,22 @@
       <c r="D51" s="14">
         <v>313</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="50" t="s">
+      <c r="E51" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="F51" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="I51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
       <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
       <c r="AA51" s="9"/>
       <c r="AB51" s="9"/>
-      <c r="AC51" s="9"/>
-      <c r="AD51" s="9"/>
-    </row>
-    <row r="52" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B52" s="13" t="s">
         <v>185</v>
       </c>
@@ -4249,24 +4066,22 @@
       <c r="D52" s="14">
         <v>313</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="50" t="s">
+      <c r="E52" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="F52" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="I52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
       <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
       <c r="AA52" s="9"/>
       <c r="AB52" s="9"/>
-      <c r="AC52" s="9"/>
-      <c r="AD52" s="9"/>
-    </row>
-    <row r="53" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B53" s="13" t="s">
         <v>186</v>
       </c>
@@ -4276,24 +4091,22 @@
       <c r="D53" s="14">
         <v>313</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="50" t="s">
+      <c r="E53" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="F53" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="I53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
       <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
-      <c r="AC53" s="9"/>
-      <c r="AD53" s="9"/>
-    </row>
-    <row r="54" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="15"/>
       <c r="B54" s="13" t="s">
         <v>187</v>
@@ -4304,24 +4117,22 @@
       <c r="D54" s="14">
         <v>313</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="50" t="s">
+      <c r="E54" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="F54" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="I54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
       <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
-      <c r="AC54" s="9"/>
-      <c r="AD54" s="9"/>
-    </row>
-    <row r="55" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A55" s="15"/>
       <c r="B55" s="13" t="s">
         <v>188</v>
@@ -4332,24 +4143,22 @@
       <c r="D55" s="14">
         <v>313</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="50" t="s">
+      <c r="E55" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="F55" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="I55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
       <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
       <c r="AB55" s="9"/>
-      <c r="AC55" s="9"/>
-      <c r="AD55" s="9"/>
-    </row>
-    <row r="56" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A56" s="15"/>
       <c r="B56" s="13" t="s">
         <v>189</v>
@@ -4360,24 +4169,22 @@
       <c r="D56" s="14">
         <v>313</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="50" t="s">
+      <c r="E56" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="H56" s="13" t="s">
+      <c r="F56" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="I56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
       <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
-      <c r="AC56" s="9"/>
-      <c r="AD56" s="9"/>
-    </row>
-    <row r="57" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="12"/>
       <c r="B57" s="13" t="s">
         <v>190</v>
@@ -4388,24 +4195,22 @@
       <c r="D57" s="14">
         <v>313</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="50" t="s">
+      <c r="E57" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="H57" s="13" t="s">
+      <c r="F57" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="I57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
       <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
-      <c r="AC57" s="9"/>
-      <c r="AD57" s="9"/>
-    </row>
-    <row r="58" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A58" s="12"/>
       <c r="B58" s="13" t="s">
         <v>191</v>
@@ -4416,24 +4221,22 @@
       <c r="D58" s="14">
         <v>313</v>
       </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="50" t="s">
+      <c r="E58" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="H58" s="13" t="s">
+      <c r="F58" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="I58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
       <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
-      <c r="AC58" s="9"/>
-      <c r="AD58" s="9"/>
-    </row>
-    <row r="59" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="12"/>
       <c r="B59" s="13" t="s">
         <v>192</v>
@@ -4444,24 +4247,22 @@
       <c r="D59" s="14">
         <v>313</v>
       </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="50" t="s">
+      <c r="E59" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="H59" s="13" t="s">
+      <c r="F59" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="I59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
       <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
-      <c r="AC59" s="9"/>
-      <c r="AD59" s="9"/>
-    </row>
-    <row r="60" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12" t="s">
         <v>138</v>
       </c>
@@ -4474,24 +4275,22 @@
       <c r="D60" s="14">
         <v>313</v>
       </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="50" t="s">
+      <c r="E60" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="F60" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
       <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
-      <c r="AC60" s="9"/>
-      <c r="AD60" s="9"/>
-    </row>
-    <row r="61" spans="1:30" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="1:28" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A61" s="12" t="s">
         <v>139</v>
       </c>
@@ -4504,24 +4303,22 @@
       <c r="D61" s="14">
         <v>313</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="50" t="s">
+      <c r="E61" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="F61" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
       <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
-      <c r="AC61" s="9"/>
-      <c r="AD61" s="9"/>
-    </row>
-    <row r="62" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="12" t="s">
         <v>267</v>
       </c>
@@ -4534,24 +4331,22 @@
       <c r="D62" s="14">
         <v>313</v>
       </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="50" t="s">
+      <c r="E62" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="H62" s="13" t="s">
+      <c r="F62" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="I62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
       <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
-      <c r="AC62" s="9"/>
-      <c r="AD62" s="9"/>
-    </row>
-    <row r="63" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="63" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="12" t="s">
         <v>264</v>
       </c>
@@ -4564,24 +4359,22 @@
       <c r="D63" s="14">
         <v>313</v>
       </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="51" t="s">
+      <c r="E63" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="H63" s="13" t="s">
+      <c r="F63" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
       <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
-      <c r="AC63" s="9"/>
-      <c r="AD63" s="9"/>
-    </row>
-    <row r="64" spans="1:30" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="64" spans="1:28" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A64" s="12" t="s">
         <v>265</v>
       </c>
@@ -4594,24 +4387,22 @@
       <c r="D64" s="14">
         <v>313</v>
       </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="50" t="s">
+      <c r="E64" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="F64" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
       <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
-      <c r="AC64" s="9"/>
-      <c r="AD64" s="9"/>
-    </row>
-    <row r="65" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="65" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="12" t="s">
         <v>258</v>
       </c>
@@ -4624,24 +4415,22 @@
       <c r="D65" s="14">
         <v>313</v>
       </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="50" t="s">
+      <c r="E65" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="H65" s="13" t="s">
+      <c r="F65" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
       <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
-      <c r="AC65" s="9"/>
-      <c r="AD65" s="9"/>
-    </row>
-    <row r="66" spans="1:30" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="1:28" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A66" s="12" t="s">
         <v>266</v>
       </c>
@@ -4654,24 +4443,22 @@
       <c r="D66" s="14">
         <v>313</v>
       </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="50" t="s">
+      <c r="E66" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="F66" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="I66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
       <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
-      <c r="AC66" s="9"/>
-      <c r="AD66" s="9"/>
-    </row>
-    <row r="67" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A67" s="12" t="s">
         <v>245</v>
       </c>
@@ -4684,24 +4471,22 @@
       <c r="D67" s="14">
         <v>313</v>
       </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="50" t="s">
+      <c r="E67" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="F67" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="I67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
       <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
-      <c r="AC67" s="9"/>
-      <c r="AD67" s="9"/>
-    </row>
-    <row r="68" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="12" t="s">
         <v>247</v>
       </c>
@@ -4714,24 +4499,22 @@
       <c r="D68" s="14">
         <v>313</v>
       </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="50" t="s">
+      <c r="E68" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="H68" s="13" t="s">
+      <c r="F68" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="I68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
       <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
-      <c r="AC68" s="9"/>
-      <c r="AD68" s="9"/>
-    </row>
-    <row r="69" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A69" s="12" t="s">
         <v>91</v>
       </c>
@@ -4744,24 +4527,22 @@
       <c r="D69" s="14">
         <v>313</v>
       </c>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="50" t="s">
+      <c r="E69" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="F69" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="I69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
       <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
-      <c r="AC69" s="9"/>
-      <c r="AD69" s="9"/>
-    </row>
-    <row r="70" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A70" s="12" t="s">
         <v>92</v>
       </c>
@@ -4774,24 +4555,22 @@
       <c r="D70" s="14">
         <v>313</v>
       </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="50" t="s">
+      <c r="E70" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="H70" s="13" t="s">
+      <c r="F70" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="I70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
       <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
-      <c r="AC70" s="9"/>
-      <c r="AD70" s="9"/>
-    </row>
-    <row r="71" spans="1:30" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="71" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A71" s="12" t="s">
         <v>135</v>
       </c>
@@ -4804,24 +4583,22 @@
       <c r="D71" s="14">
         <v>313</v>
       </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="50" t="s">
+      <c r="E71" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="H71" s="13" t="s">
+      <c r="F71" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="I71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
       <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
-      <c r="AC71" s="9"/>
-      <c r="AD71" s="9"/>
-    </row>
-    <row r="72" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="12" t="s">
         <v>269</v>
       </c>
@@ -4830,73 +4607,65 @@
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="9"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
       <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
-      <c r="AC72" s="9"/>
-      <c r="AD72" s="9"/>
-    </row>
-    <row r="73" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="73" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="12"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="9"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
       <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
-      <c r="AC73" s="9"/>
-      <c r="AD73" s="9"/>
-    </row>
-    <row r="74" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="12"/>
       <c r="C74" s="13"/>
       <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="9"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
       <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
-      <c r="AC74" s="9"/>
-      <c r="AD74" s="9"/>
-    </row>
-    <row r="75" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="12"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="9"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
       <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
-      <c r="AC75" s="9"/>
-      <c r="AD75" s="9"/>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.4">
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B78" s="10"/>
     </row>
   </sheetData>

--- a/로스트아크/데이터테이블/Skill_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Info_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B043A6-4027-43F2-A5A9-6FF15D979C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3153A93F-4594-4BA9-BDA0-E3AEB1FCE28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="297">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1288,10 +1288,6 @@
   </si>
   <si>
     <t>'수라결' 효과를 획득하며 이동기 스킬이 변경되고, 기본 공격이 수라결 기본 공격으로 변경된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2023,9 +2019,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2053,9 +2046,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2064,6 +2054,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2086,6 +2082,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7619</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>155207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3131820</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>41535</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2928CEE0-23DA-4015-32EE-3829BA6438E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662939" y="1938287"/>
+          <a:ext cx="5570221" cy="2400928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2385,17 +2435,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:Q21"/>
+  <dimension ref="B1:Q26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.19921875" style="20" customWidth="1"/>
     <col min="2" max="2" width="4.3984375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="4.3984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.09765625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.8984375" style="19" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="19" customWidth="1"/>
     <col min="6" max="6" width="52.09765625" style="19" customWidth="1"/>
@@ -2405,27 +2455,27 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-    </row>
-    <row r="3" spans="2:17" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+    </row>
+    <row r="3" spans="2:17" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="47"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="19"/>
@@ -2543,50 +2593,115 @@
       <c r="E10" s="40"/>
       <c r="F10" s="41"/>
     </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+    </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="F13" s="26"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="F14" s="42"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="F15" s="26"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F21" s="20"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C12:F25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AF75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
@@ -2595,7 +2710,7 @@
     <col min="2" max="2" width="12.796875" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.3984375" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.19921875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.296875" style="50" customWidth="1"/>
+    <col min="5" max="5" width="102.296875" style="49" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.69921875" style="16" customWidth="1"/>
     <col min="8" max="9" width="15.69921875" style="11" customWidth="1"/>
@@ -2622,7 +2737,7 @@
       <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>132</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -2657,14 +2772,23 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
-        <v>269</v>
+        <v>86</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="14"/>
-      <c r="F2" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="14">
+        <v>305</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -2694,22 +2818,19 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D3" s="14">
         <v>305</v>
       </c>
-      <c r="E3" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>81</v>
+      <c r="F3" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
@@ -2738,65 +2859,48 @@
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4" s="14">
         <v>305</v>
       </c>
+      <c r="E4" s="49"/>
       <c r="F4" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
     </row>
     <row r="5" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D5" s="14">
         <v>305</v>
       </c>
-      <c r="E5" s="50"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G5" s="9"/>
       <c r="S5" s="9"/>
@@ -2809,20 +2913,20 @@
     </row>
     <row r="6" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>75</v>
+        <v>100</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="D6" s="14">
         <v>305</v>
       </c>
-      <c r="E6" s="50"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" s="9"/>
       <c r="S6" s="9"/>
@@ -2834,21 +2938,23 @@
       <c r="AB6" s="9"/>
     </row>
     <row r="7" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
-        <v>87</v>
+      <c r="A7" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="D7" s="14">
         <v>305</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="49" t="s">
+        <v>144</v>
+      </c>
       <c r="F7" s="13" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="G7" s="9"/>
       <c r="S7" s="9"/>
@@ -2860,23 +2966,21 @@
       <c r="AB7" s="9"/>
     </row>
     <row r="8" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15" t="s">
-        <v>133</v>
-      </c>
+      <c r="A8" s="15"/>
       <c r="B8" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="14">
         <v>305</v>
       </c>
-      <c r="E8" s="50" t="s">
-        <v>144</v>
+      <c r="E8" s="49" t="s">
+        <v>146</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G8" s="9"/>
       <c r="S8" s="9"/>
@@ -2890,19 +2994,19 @@
     <row r="9" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15"/>
       <c r="B9" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="14">
         <v>305</v>
       </c>
-      <c r="E9" s="50" t="s">
-        <v>146</v>
+      <c r="E9" s="49" t="s">
+        <v>147</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="9"/>
       <c r="S9" s="9"/>
@@ -2913,22 +3017,22 @@
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
     </row>
-    <row r="10" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
       <c r="B10" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="14">
         <v>305</v>
       </c>
-      <c r="E10" s="50" t="s">
-        <v>147</v>
+      <c r="E10" s="49" t="s">
+        <v>148</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="9"/>
       <c r="S10" s="9"/>
@@ -2939,22 +3043,22 @@
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
     </row>
-    <row r="11" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15"/>
       <c r="B11" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="14">
         <v>305</v>
       </c>
-      <c r="E11" s="50" t="s">
-        <v>148</v>
+      <c r="E11" s="49" t="s">
+        <v>150</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="9"/>
       <c r="S11" s="9"/>
@@ -2968,19 +3072,19 @@
     <row r="12" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
       <c r="B12" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="14">
         <v>305</v>
       </c>
-      <c r="E12" s="50" t="s">
-        <v>150</v>
+      <c r="E12" s="49" t="s">
+        <v>149</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" s="9"/>
       <c r="S12" s="9"/>
@@ -2991,22 +3095,22 @@
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
     </row>
-    <row r="13" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
       <c r="B13" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="14">
         <v>305</v>
       </c>
-      <c r="E13" s="50" t="s">
-        <v>149</v>
+      <c r="E13" s="49" t="s">
+        <v>151</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" s="9"/>
       <c r="S13" s="9"/>
@@ -3017,22 +3121,22 @@
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
     </row>
-    <row r="14" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
       <c r="B14" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="14">
         <v>305</v>
       </c>
-      <c r="E14" s="50" t="s">
-        <v>151</v>
+      <c r="E14" s="49" t="s">
+        <v>152</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G14" s="9"/>
       <c r="S14" s="9"/>
@@ -3043,22 +3147,22 @@
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
     </row>
-    <row r="15" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A15" s="15"/>
       <c r="B15" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="14">
         <v>305</v>
       </c>
-      <c r="E15" s="50" t="s">
-        <v>152</v>
+      <c r="E15" s="49" t="s">
+        <v>153</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="9"/>
       <c r="S15" s="9"/>
@@ -3069,22 +3173,22 @@
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
     </row>
-    <row r="16" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15"/>
       <c r="B16" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="14">
         <v>305</v>
       </c>
-      <c r="E16" s="50" t="s">
-        <v>153</v>
+      <c r="E16" s="49" t="s">
+        <v>154</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G16" s="9"/>
       <c r="S16" s="9"/>
@@ -3098,19 +3202,19 @@
     <row r="17" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15"/>
       <c r="B17" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D17" s="14">
         <v>305</v>
       </c>
-      <c r="E17" s="50" t="s">
-        <v>154</v>
+      <c r="E17" s="49" t="s">
+        <v>155</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G17" s="9"/>
       <c r="S17" s="9"/>
@@ -3121,22 +3225,22 @@
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
     </row>
-    <row r="18" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A18" s="15"/>
       <c r="B18" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D18" s="14">
         <v>305</v>
       </c>
-      <c r="E18" s="50" t="s">
-        <v>155</v>
+      <c r="E18" s="49" t="s">
+        <v>156</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G18" s="9"/>
       <c r="S18" s="9"/>
@@ -3147,22 +3251,22 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
     </row>
-    <row r="19" spans="1:28" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A19" s="15"/>
       <c r="B19" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="14">
         <v>305</v>
       </c>
-      <c r="E19" s="50" t="s">
-        <v>156</v>
+      <c r="E19" s="49" t="s">
+        <v>157</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G19" s="9"/>
       <c r="S19" s="9"/>
@@ -3176,19 +3280,19 @@
     <row r="20" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A20" s="15"/>
       <c r="B20" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D20" s="14">
         <v>305</v>
       </c>
-      <c r="E20" s="50" t="s">
-        <v>157</v>
+      <c r="E20" s="49" t="s">
+        <v>141</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="G20" s="9"/>
       <c r="S20" s="9"/>
@@ -3199,22 +3303,22 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
     </row>
-    <row r="21" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A21" s="15"/>
+    <row r="21" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="B21" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>5</v>
+        <v>115</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="D21" s="14">
         <v>305</v>
       </c>
-      <c r="E21" s="50" t="s">
-        <v>141</v>
-      </c>
+      <c r="E21" s="49"/>
       <c r="F21" s="13" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="G21" s="9"/>
       <c r="S21" s="9"/>
@@ -3227,20 +3331,22 @@
     </row>
     <row r="22" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D22" s="14">
         <v>305</v>
       </c>
-      <c r="E22" s="50"/>
+      <c r="E22" s="49" t="s">
+        <v>158</v>
+      </c>
       <c r="F22" s="13" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="G22" s="9"/>
       <c r="S22" s="9"/>
@@ -3252,23 +3358,21 @@
       <c r="AB22" s="9"/>
     </row>
     <row r="23" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="12" t="s">
-        <v>134</v>
-      </c>
+      <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D23" s="14">
         <v>305</v>
       </c>
-      <c r="E23" s="50" t="s">
-        <v>158</v>
+      <c r="E23" s="49" t="s">
+        <v>159</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G23" s="9"/>
       <c r="S23" s="9"/>
@@ -3282,19 +3386,19 @@
     <row r="24" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="12"/>
       <c r="B24" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="14">
         <v>305</v>
       </c>
-      <c r="E24" s="50" t="s">
-        <v>159</v>
+      <c r="E24" s="49" t="s">
+        <v>160</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G24" s="9"/>
       <c r="S24" s="9"/>
@@ -3308,19 +3412,19 @@
     <row r="25" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12"/>
       <c r="B25" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>45</v>
+        <v>119</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D25" s="14">
         <v>305</v>
       </c>
-      <c r="E25" s="50" t="s">
-        <v>160</v>
+      <c r="E25" s="49" t="s">
+        <v>161</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="G25" s="9"/>
       <c r="S25" s="9"/>
@@ -3331,22 +3435,22 @@
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
     </row>
-    <row r="26" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A26" s="12"/>
       <c r="B26" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D26" s="14">
         <v>305</v>
       </c>
-      <c r="E26" s="50" t="s">
-        <v>161</v>
+      <c r="E26" s="49" t="s">
+        <v>167</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="G26" s="9"/>
       <c r="S26" s="9"/>
@@ -3360,19 +3464,19 @@
     <row r="27" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A27" s="12"/>
       <c r="B27" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D27" s="14">
         <v>305</v>
       </c>
-      <c r="E27" s="50" t="s">
-        <v>167</v>
+      <c r="E27" s="49" t="s">
+        <v>140</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="G27" s="9"/>
       <c r="S27" s="9"/>
@@ -3384,21 +3488,23 @@
       <c r="AB27" s="9"/>
     </row>
     <row r="28" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A28" s="12"/>
+      <c r="A28" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="B28" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D28" s="14">
         <v>305</v>
       </c>
-      <c r="E28" s="50" t="s">
-        <v>140</v>
+      <c r="E28" s="49" t="s">
+        <v>20</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="G28" s="9"/>
       <c r="S28" s="9"/>
@@ -3409,24 +3515,24 @@
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
     </row>
-    <row r="29" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="14">
         <v>305</v>
       </c>
-      <c r="E29" s="50" t="s">
-        <v>20</v>
+      <c r="E29" s="49" t="s">
+        <v>145</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G29" s="9"/>
       <c r="S29" s="9"/>
@@ -3437,24 +3543,24 @@
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
     </row>
-    <row r="30" spans="1:28" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D30" s="14">
         <v>305</v>
       </c>
-      <c r="E30" s="50" t="s">
-        <v>145</v>
+      <c r="E30" s="49" t="s">
+        <v>162</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="G30" s="9"/>
       <c r="S30" s="9"/>
@@ -3467,22 +3573,22 @@
     </row>
     <row r="31" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D31" s="14">
         <v>305</v>
       </c>
-      <c r="E31" s="50" t="s">
-        <v>162</v>
+      <c r="E31" s="49" t="s">
+        <v>163</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G31" s="9"/>
       <c r="S31" s="9"/>
@@ -3495,22 +3601,22 @@
     </row>
     <row r="32" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32" s="14">
         <v>305</v>
       </c>
-      <c r="E32" s="50" t="s">
-        <v>163</v>
+      <c r="E32" s="49" t="s">
+        <v>164</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G32" s="9"/>
       <c r="S32" s="9"/>
@@ -3521,24 +3627,24 @@
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
     </row>
-    <row r="33" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A33" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33" s="14">
         <v>305</v>
       </c>
-      <c r="E33" s="50" t="s">
-        <v>164</v>
+      <c r="E33" s="49" t="s">
+        <v>165</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G33" s="9"/>
       <c r="S33" s="9"/>
@@ -3549,24 +3655,24 @@
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
     </row>
-    <row r="34" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="12" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D34" s="14">
         <v>305</v>
       </c>
-      <c r="E34" s="50" t="s">
-        <v>165</v>
+      <c r="E34" s="49" t="s">
+        <v>166</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G34" s="9"/>
       <c r="S34" s="9"/>
@@ -3582,19 +3688,17 @@
         <v>135</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D35" s="14">
         <v>305</v>
       </c>
-      <c r="E35" s="50" t="s">
-        <v>166</v>
-      </c>
+      <c r="E35" s="49"/>
       <c r="F35" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G35" s="9"/>
       <c r="S35" s="9"/>
@@ -3605,157 +3709,165 @@
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
     </row>
-    <row r="36" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>74</v>
+        <v>171</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="D36" s="14">
-        <v>305</v>
-      </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="13" t="s">
-        <v>73</v>
+        <v>313</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="G36" s="9"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
-    </row>
-    <row r="37" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A37" s="12" t="s">
-        <v>269</v>
+        <v>168</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="13"/>
+        <v>172</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="14">
+        <v>313</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+    </row>
+    <row r="38" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="12" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="D38" s="14">
         <v>313</v>
       </c>
-      <c r="E38" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>81</v>
+      <c r="E38" s="49"/>
+      <c r="F38" s="13" t="s">
+        <v>225</v>
       </c>
       <c r="G38" s="9"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="12" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="D39" s="14">
         <v>313</v>
       </c>
+      <c r="E39" s="49"/>
       <c r="F39" s="13" t="s">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="G39" s="9"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="10"/>
     </row>
     <row r="40" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="12" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>224</v>
       </c>
       <c r="D40" s="14">
         <v>313</v>
       </c>
-      <c r="E40" s="50"/>
+      <c r="E40" s="49" t="s">
+        <v>269</v>
+      </c>
       <c r="F40" s="13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G40" s="9"/>
       <c r="S40" s="9"/>
@@ -3767,21 +3879,21 @@
       <c r="AB40" s="9"/>
     </row>
     <row r="41" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="12" t="s">
-        <v>75</v>
-      </c>
+      <c r="A41" s="15"/>
       <c r="B41" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>75</v>
+        <v>176</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="D41" s="14">
         <v>313</v>
       </c>
-      <c r="E41" s="50"/>
+      <c r="E41" s="49" t="s">
+        <v>270</v>
+      </c>
       <c r="F41" s="13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G41" s="9"/>
       <c r="S41" s="9"/>
@@ -3793,23 +3905,21 @@
       <c r="AB41" s="9"/>
     </row>
     <row r="42" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="12" t="s">
-        <v>235</v>
-      </c>
+      <c r="A42" s="15"/>
       <c r="B42" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D42" s="14">
         <v>313</v>
       </c>
-      <c r="E42" s="50" t="s">
-        <v>270</v>
+      <c r="E42" s="49" t="s">
+        <v>271</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G42" s="9"/>
       <c r="S42" s="9"/>
@@ -3823,19 +3933,19 @@
     <row r="43" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="15"/>
       <c r="B43" s="13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="D43" s="14">
         <v>313</v>
       </c>
-      <c r="E43" s="50" t="s">
-        <v>271</v>
+      <c r="E43" s="49" t="s">
+        <v>272</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G43" s="9"/>
       <c r="S43" s="9"/>
@@ -3849,19 +3959,19 @@
     <row r="44" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="15"/>
       <c r="B44" s="13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D44" s="14">
         <v>313</v>
       </c>
-      <c r="E44" s="50" t="s">
-        <v>272</v>
+      <c r="E44" s="49" t="s">
+        <v>273</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G44" s="9"/>
       <c r="S44" s="9"/>
@@ -3875,19 +3985,19 @@
     <row r="45" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="15"/>
       <c r="B45" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="D45" s="14">
         <v>313</v>
       </c>
-      <c r="E45" s="50" t="s">
-        <v>273</v>
+      <c r="E45" s="49" t="s">
+        <v>274</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G45" s="9"/>
       <c r="S45" s="9"/>
@@ -3898,22 +4008,22 @@
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
     </row>
-    <row r="46" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A46" s="15"/>
       <c r="B46" s="13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D46" s="14">
         <v>313</v>
       </c>
-      <c r="E46" s="50" t="s">
-        <v>274</v>
+      <c r="E46" s="49" t="s">
+        <v>275</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="G46" s="9"/>
       <c r="S46" s="9"/>
@@ -3924,22 +4034,22 @@
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
     </row>
-    <row r="47" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A47" s="15"/>
       <c r="B47" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D47" s="14">
         <v>313</v>
       </c>
-      <c r="E47" s="50" t="s">
-        <v>275</v>
+      <c r="E47" s="49" t="s">
+        <v>276</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="G47" s="9"/>
       <c r="S47" s="9"/>
@@ -3953,19 +4063,19 @@
     <row r="48" spans="1:32" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A48" s="15"/>
       <c r="B48" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="D48" s="14">
         <v>313</v>
       </c>
-      <c r="E48" s="50" t="s">
-        <v>276</v>
+      <c r="E48" s="49" t="s">
+        <v>277</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G48" s="9"/>
       <c r="S48" s="9"/>
@@ -3976,22 +4086,24 @@
       <c r="AA48" s="9"/>
       <c r="AB48" s="9"/>
     </row>
-    <row r="49" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A49" s="15"/>
+    <row r="49" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="15" t="s">
+        <v>236</v>
+      </c>
       <c r="B49" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D49" s="14">
         <v>313</v>
       </c>
-      <c r="E49" s="50" t="s">
-        <v>277</v>
+      <c r="E49" s="49" t="s">
+        <v>278</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G49" s="9"/>
       <c r="S49" s="9"/>
@@ -4002,22 +4114,21 @@
       <c r="AA49" s="9"/>
       <c r="AB49" s="9"/>
     </row>
-    <row r="50" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A50" s="15"/>
+    <row r="50" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B50" s="13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="D50" s="14">
         <v>313</v>
       </c>
-      <c r="E50" s="50" t="s">
-        <v>278</v>
+      <c r="E50" s="49" t="s">
+        <v>279</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G50" s="9"/>
       <c r="S50" s="9"/>
@@ -4029,23 +4140,20 @@
       <c r="AB50" s="9"/>
     </row>
     <row r="51" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="15" t="s">
-        <v>236</v>
-      </c>
       <c r="B51" s="13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="D51" s="14">
         <v>313</v>
       </c>
-      <c r="E51" s="50" t="s">
-        <v>279</v>
+      <c r="E51" s="49" t="s">
+        <v>280</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G51" s="9"/>
       <c r="S51" s="9"/>
@@ -4057,20 +4165,21 @@
       <c r="AB51" s="9"/>
     </row>
     <row r="52" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="15"/>
       <c r="B52" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D52" s="14">
         <v>313</v>
       </c>
-      <c r="E52" s="50" t="s">
-        <v>280</v>
+      <c r="E52" s="49" t="s">
+        <v>281</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G52" s="9"/>
       <c r="S52" s="9"/>
@@ -4081,21 +4190,22 @@
       <c r="AA52" s="9"/>
       <c r="AB52" s="9"/>
     </row>
-    <row r="53" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
+      <c r="A53" s="15"/>
       <c r="B53" s="13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="D53" s="14">
         <v>313</v>
       </c>
-      <c r="E53" s="50" t="s">
-        <v>281</v>
+      <c r="E53" s="49" t="s">
+        <v>282</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G53" s="9"/>
       <c r="S53" s="9"/>
@@ -4106,22 +4216,22 @@
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
     </row>
-    <row r="54" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A54" s="15"/>
       <c r="B54" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D54" s="14">
         <v>313</v>
       </c>
-      <c r="E54" s="50" t="s">
-        <v>282</v>
+      <c r="E54" s="49" t="s">
+        <v>283</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G54" s="9"/>
       <c r="S54" s="9"/>
@@ -4132,22 +4242,22 @@
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
     </row>
-    <row r="55" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A55" s="15"/>
+    <row r="55" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="12"/>
       <c r="B55" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>243</v>
+        <v>190</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="D55" s="14">
         <v>313</v>
       </c>
-      <c r="E55" s="50" t="s">
-        <v>283</v>
+      <c r="E55" s="49" t="s">
+        <v>284</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G55" s="9"/>
       <c r="S55" s="9"/>
@@ -4159,21 +4269,21 @@
       <c r="AB55" s="9"/>
     </row>
     <row r="56" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A56" s="15"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>218</v>
+        <v>191</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="D56" s="14">
         <v>313</v>
       </c>
-      <c r="E56" s="50" t="s">
-        <v>284</v>
+      <c r="E56" s="49" t="s">
+        <v>285</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G56" s="9"/>
       <c r="S56" s="9"/>
@@ -4187,19 +4297,19 @@
     <row r="57" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="12"/>
       <c r="B57" s="13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D57" s="14">
         <v>313</v>
       </c>
-      <c r="E57" s="50" t="s">
-        <v>285</v>
+      <c r="E57" s="49" t="s">
+        <v>286</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G57" s="9"/>
       <c r="S57" s="9"/>
@@ -4210,22 +4320,24 @@
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
     </row>
-    <row r="58" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A58" s="12"/>
+    <row r="58" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="B58" s="13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="D58" s="14">
         <v>313</v>
       </c>
-      <c r="E58" s="50" t="s">
-        <v>286</v>
+      <c r="E58" s="49" t="s">
+        <v>287</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="G58" s="9"/>
       <c r="S58" s="9"/>
@@ -4236,22 +4348,24 @@
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
     </row>
-    <row r="59" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="12"/>
+    <row r="59" spans="1:28" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="A59" s="12" t="s">
+        <v>139</v>
+      </c>
       <c r="B59" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>220</v>
+        <v>194</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="D59" s="14">
         <v>313</v>
       </c>
-      <c r="E59" s="50" t="s">
-        <v>287</v>
+      <c r="E59" s="49" t="s">
+        <v>291</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="G59" s="9"/>
       <c r="S59" s="9"/>
@@ -4264,22 +4378,22 @@
     </row>
     <row r="60" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12" t="s">
-        <v>138</v>
+        <v>267</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="D60" s="14">
         <v>313</v>
       </c>
-      <c r="E60" s="50" t="s">
-        <v>288</v>
+      <c r="E60" s="49" t="s">
+        <v>292</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="G60" s="9"/>
       <c r="S60" s="9"/>
@@ -4290,24 +4404,24 @@
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
     </row>
-    <row r="61" spans="1:28" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="12" t="s">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>9</v>
+        <v>170</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>260</v>
       </c>
       <c r="D61" s="14">
         <v>313</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G61" s="9"/>
       <c r="S61" s="9"/>
@@ -4318,24 +4432,24 @@
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
     </row>
-    <row r="62" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:28" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A62" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>257</v>
+        <v>195</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="D62" s="14">
         <v>313</v>
       </c>
-      <c r="E62" s="50" t="s">
+      <c r="E62" s="49" t="s">
         <v>293</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="G62" s="9"/>
       <c r="S62" s="9"/>
@@ -4348,22 +4462,22 @@
     </row>
     <row r="63" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>260</v>
+        <v>196</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="D63" s="14">
         <v>313</v>
       </c>
-      <c r="E63" s="51" t="s">
-        <v>268</v>
+      <c r="E63" s="49" t="s">
+        <v>81</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="G63" s="9"/>
       <c r="S63" s="9"/>
@@ -4376,22 +4490,22 @@
     </row>
     <row r="64" spans="1:28" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A64" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>12</v>
+        <v>197</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="D64" s="14">
         <v>313</v>
       </c>
-      <c r="E64" s="50" t="s">
+      <c r="E64" s="49" t="s">
         <v>294</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="G64" s="9"/>
       <c r="S64" s="9"/>
@@ -4402,24 +4516,24 @@
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
     </row>
-    <row r="65" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A65" s="12" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="D65" s="14">
         <v>313</v>
       </c>
-      <c r="E65" s="50" t="s">
-        <v>81</v>
+      <c r="E65" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="G65" s="9"/>
       <c r="S65" s="9"/>
@@ -4430,24 +4544,24 @@
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
     </row>
-    <row r="66" spans="1:28" s="10" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="12" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>11</v>
+        <v>199</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>246</v>
       </c>
       <c r="D66" s="14">
         <v>313</v>
       </c>
-      <c r="E66" s="50" t="s">
-        <v>295</v>
+      <c r="E66" s="49" t="s">
+        <v>289</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G66" s="9"/>
       <c r="S66" s="9"/>
@@ -4460,22 +4574,22 @@
     </row>
     <row r="67" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A67" s="12" t="s">
-        <v>245</v>
+        <v>91</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D67" s="14">
         <v>313</v>
       </c>
-      <c r="E67" s="50" t="s">
-        <v>289</v>
+      <c r="E67" s="49" t="s">
+        <v>290</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G67" s="9"/>
       <c r="S67" s="9"/>
@@ -4486,24 +4600,24 @@
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
     </row>
-    <row r="68" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A68" s="12" t="s">
-        <v>247</v>
+        <v>92</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D68" s="14">
         <v>313</v>
       </c>
-      <c r="E68" s="50" t="s">
-        <v>290</v>
+      <c r="E68" s="49" t="s">
+        <v>296</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G68" s="9"/>
       <c r="S68" s="9"/>
@@ -4516,22 +4630,22 @@
     </row>
     <row r="69" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
       <c r="A69" s="12" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D69" s="14">
         <v>313</v>
       </c>
-      <c r="E69" s="50" t="s">
-        <v>291</v>
+      <c r="E69" s="49" t="s">
+        <v>295</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G69" s="9"/>
       <c r="S69" s="9"/>
@@ -4542,25 +4656,13 @@
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
     </row>
-    <row r="70" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A70" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="D70" s="14">
-        <v>313</v>
-      </c>
-      <c r="E70" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>254</v>
-      </c>
+    <row r="70" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="12"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="13"/>
       <c r="G70" s="9"/>
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
@@ -4570,25 +4672,12 @@
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
     </row>
-    <row r="71" spans="1:28" s="10" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A71" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D71" s="14">
-        <v>313</v>
-      </c>
-      <c r="E71" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>255</v>
-      </c>
+    <row r="71" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="12"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="13"/>
       <c r="G71" s="9"/>
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
@@ -4599,15 +4688,11 @@
       <c r="AB71" s="9"/>
     </row>
     <row r="72" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>269</v>
-      </c>
+      <c r="A72" s="12"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="14"/>
-      <c r="E72" s="52"/>
+      <c r="E72" s="49"/>
       <c r="F72" s="13"/>
       <c r="G72" s="9"/>
       <c r="S72" s="9"/>
@@ -4618,55 +4703,8 @@
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
     </row>
-    <row r="73" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="12"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
-      <c r="Y73" s="9"/>
-      <c r="Z73" s="9"/>
-      <c r="AA73" s="9"/>
-      <c r="AB73" s="9"/>
-    </row>
-    <row r="74" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="Y74" s="9"/>
-      <c r="Z74" s="9"/>
-      <c r="AA74" s="9"/>
-      <c r="AB74" s="9"/>
-    </row>
-    <row r="75" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="12"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="9"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
-      <c r="U75" s="9"/>
-      <c r="Y75" s="9"/>
-      <c r="Z75" s="9"/>
-      <c r="AA75" s="9"/>
-      <c r="AB75" s="9"/>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B78" s="10"/>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B75" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
